--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F137A9C-E632-46FC-A2C0-6749291C380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88D8AA8-46D1-460E-A1F8-9E25076E0174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20424" yWindow="3000" windowWidth="22152" windowHeight="11832" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15816" yWindow="8940" windowWidth="13560" windowHeight="7548" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="岗位要求" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="172">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1217,6 +1217,62 @@
   </si>
   <si>
     <t>京东是我所有面试里面试官最认真的一个 一字一字念你的简历 然后请你介绍 然后你回答的时候他还在似乎在用笔手写记录着什么 面试的时候也是可以发邮件选约面时间 体验很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先去，不合适跑路就行，包吃住更不用犹豫，一边干一边找，白嫖2000不血赚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引流：字节跳动，阿里，腾讯，百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯hr的话一个标点符号都不能信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛油大佬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">二面开场要求英文自我介绍和简单对话了...还是老老实实准备吧     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面完一礼拜HR会打电话给口头offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Assessment Center（评估中心）+ Additional（附加）面试”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O365暑期实习：2.28笔试（英文题目）、3.15一面、3.19lead面、3.24信息收集、3.31offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中英文简历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2547,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D197D62-2100-4C19-B8B1-1F653B1805D8}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2743,9 +2799,82 @@
         <v>155</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2753,7 +2882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DB9667-D34F-4961-9E25-8E658D691383}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99897C0C-3609-4DE2-9680-10EF4635A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321B11C-A4E7-4E90-940B-8BF9489A7A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="217">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1167,47 +1167,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毁意向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21-23k*14-16/总包38w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>不招人，转正率看部门（stca swe sde）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.06面过一个月收到实习offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能调剂南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-22k*14-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小周
+能学到东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪浪云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13薪
+1-3个月年终奖
+社保640=8k*8%
+公积金800=1w*8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氛围不错
+有所加班，强度不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件创新部门BCSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均2w
+公积金2400=2w*12%
+3个月年终奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外企
+无锡加班严重，一个人干几份活
+苏州博世也卷但是给钱多
+毁意向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>垂类行业独角兽
-6点下班，偶尔加班，周末不加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>科大讯飞（苏州</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>不招人，转正率看部门（stca swe sde）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021.06面过一个月收到实习offer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能调剂南京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州</t>
+6点下班（任务能完成的话），偶尔加班，周末不加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心外包，薪资差了正编一截</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1215,7 +1254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,13 +1310,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1285,7 +1317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,12 +1339,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,6 +1537,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,46 +1564,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1578,57 +1604,76 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1695,6 +1740,47 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1709,34 +1795,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:H1048576" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:H1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{065D7254-8066-43B0-8411-CC7BE545EB54}" name="白菜/sp/ssp" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{065D7254-8066-43B0-8411-CC7BE545EB54}" name="白菜/sp/ssp" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2098,30 +2184,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5E0F3C-30C4-4336-88FD-012C7F5A8329}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="6.640625" style="13" customWidth="1"/>
-    <col min="4" max="5" width="20.640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="20.640625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="20.640625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="20.640625" style="36" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="6.640625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="6.640625" style="43" customWidth="1"/>
+    <col min="4" max="5" width="20.640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="20.640625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="20.640625" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2130,425 +2216,473 @@
       <c r="E1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="36" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="36" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="38" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="38" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>176</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="36" t="s">
-        <v>203</v>
+      <c r="H23" s="27" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>205</v>
+      <c r="F24" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="37"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="37"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="37"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="37"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="37"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="37"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A40" s="41" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="34"/>
+    </row>
+    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A41" s="40"/>
+      <c r="B41" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C41" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="41"/>
-      <c r="B41" s="42" t="s">
+      <c r="E41" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A42" s="40"/>
+      <c r="B42" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C42" s="40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42" t="s">
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A43" s="40"/>
+      <c r="B43" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A45" s="40"/>
+      <c r="B45" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C45" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="43"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="43"/>
+      <c r="D45" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3304,7 +3438,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>116</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -3315,7 +3449,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="3" t="s">
         <v>110</v>
       </c>
@@ -3324,7 +3458,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="15" t="s">
         <v>111</v>
       </c>
@@ -3333,7 +3467,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3344,7 +3478,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
@@ -3353,7 +3487,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="3" t="s">
         <v>114</v>
       </c>
@@ -3362,11 +3496,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321B11C-A4E7-4E90-940B-8BF9489A7A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAAB11A-4572-4BB6-8129-545967FACFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java后端岗位要求" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="324">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蚂蚁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bilibili</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>叠纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>饿了么</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>京东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顺丰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,14 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白菜/sp/ssp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,10 +184,6 @@
   </si>
   <si>
     <t>核心业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,10 +270,6 @@
   </si>
   <si>
     <t>搜索=广告、到店、外卖、优选（美团买菜）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22k*16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19k*15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23k*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,26 +418,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17k*15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南京、深圳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22.5k*12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武汉、上海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18k*15、22k*15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,10 +551,6 @@
   </si>
   <si>
     <t>中英文简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京205、上海20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1249,6 +1193,486 @@
     <t>小心外包，薪资差了正编一截</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>去哪儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯云智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哔哩哔哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssp offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-26*15 (36-39w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-30*15 (40-50w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32-33*15 (50w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*15 (40w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-30*15 (41-46w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32-35*15 (49-53w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东零售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.5*19 (48w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29*19 (55w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31-33.5*19 (58-63w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.5-27*16 (42w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30k*16 (48w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21*20 (42w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24*20 (48w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27*20 (50w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团北上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23*15.5 （35w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25*15.5 (40w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-30*15 (45-50w+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19*15.5 (29w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里淘天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24*16 (39w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*16 (42w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29*16 (50w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁金服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23*16 (39w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-26*16 (42-44w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*16 (47w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25*16 (40w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-30*16 (43-53w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32*16 (59w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-27*16 (42-45w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*16 (50w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-24*16 (35-41w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-30*16 (41-51w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32*16 (55w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周63.8h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周62.4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*16 (50w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*16 (58w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36*16 (70w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25*16 (41w+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-29*16 (46-48w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-32*16 (50-60w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.5*15 (35w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29*15 (46w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-32*15 (50w+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京、上海、深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27*15 （40w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31*15 (46w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23*16 (37w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-22*16 (33-35w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-23*14 （30-32w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26*14 (36w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*14 (42w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市，一线薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安、长沙、武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-13*16 (22-24w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-14.5*16 (26-27w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13级19-21*14-16 (30-33w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14级22-25*14-16 (35-40w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15级26-31*14-16 (41-50w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士14级居多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-19*12-18 （27-34w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-24*12-18 (40-50w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-29*12-18 (50w+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜和sp差距大。部门之间差距大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP-Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-21*16 (30-33w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-25*16 (36-40w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-28*16 (41-44w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳、成都、上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-18*15 (17-27w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-22*14-16 （28-35w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-26*12 (35-39w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-29*12 (38-44w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17k*15 (27w+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*15 (32w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-22*15 (31-34w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-25*15 (37-38w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*16 (44w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32*16 (51w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-15*1.36*12 (14.6-24.4w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18*1.36*12 (29.3w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23*1.36*12 (37.5w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.5*12 （27w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.5-18*12 (30-31w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金缴纳系数12%，深圳工作时间早8.5晚5.5双休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19k*15 (28.5w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.5k*12 (27w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.5*13-14.5 (30-34w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25*15 (37.5w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28*13-14.5 (36-40w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京、上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1317,7 +1741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1342,8 +1766,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1458,12 +1918,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1483,18 +1992,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1528,15 +2025,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1546,6 +2034,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1564,45 +2079,188 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1676,89 +2334,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1795,34 +2370,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:H1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11">
+  <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
+    <sortCondition ref="B1:B1048576"/>
+  </sortState>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{065D7254-8066-43B0-8411-CC7BE545EB54}" name="白菜/sp/ssp" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2106,72 +2686,72 @@
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2184,504 +2764,493 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5E0F3C-30C4-4336-88FD-012C7F5A8329}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.640625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="6.640625" style="43" customWidth="1"/>
-    <col min="4" max="5" width="20.640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="20.640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="20.640625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="20.640625" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="6.640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.640625" style="28" customWidth="1"/>
+    <col min="4" max="5" width="20.640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="20.640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="20.640625" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>42</v>
+      <c r="B1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A41" s="25"/>
+      <c r="B41" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A42" s="25"/>
+      <c r="B42" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="25" t="s">
+    </row>
+    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A45" s="25"/>
+      <c r="B45" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="27" t="s">
+      <c r="E45" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="20" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="34"/>
-    </row>
-    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A42" s="40"/>
-      <c r="B42" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="A45" s="40"/>
-      <c r="B45" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2696,10 +3265,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B742DD32-DB14-42AA-92E2-9F2A36E24884}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2708,425 +3277,809 @@
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="25.640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="40.640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="25.640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="25.640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="5" width="25.640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.640625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="24.640625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="24.640625" style="44" customWidth="1"/>
+    <col min="9" max="10" width="25.640625" style="56" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>138</v>
+        <v>83</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
+      <c r="B3" s="54" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="F13" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="J22" s="56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" s="56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" s="56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B36" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B38" s="50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="E40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="B44" s="52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>11</v>
+      <c r="B45" s="52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="J46" s="56" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J46">
+    <sortCondition ref="D1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G29" r:id="rId1" xr:uid="{765385CA-D4EC-45C0-95CA-7490131A33EE}"/>
+    <hyperlink ref="I29" r:id="rId1" xr:uid="{765385CA-D4EC-45C0-95CA-7490131A33EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3145,264 +4098,264 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="80.640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="80.640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="12" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="15" spans="1:2" ht="16.3" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="12" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="12" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="12" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.3" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="12" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>89</v>
+      <c r="B21" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B28" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="12" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
+      <c r="B30" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3427,80 +4380,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>108</v>
+      <c r="A1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="A2" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="20">
+        <v>97</v>
+      </c>
+      <c r="C3" s="16">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="A4" s="35"/>
+      <c r="B4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="17">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
-        <v>117</v>
+      <c r="A5" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="20">
+        <v>100</v>
+      </c>
+      <c r="C5" s="16">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="20">
+        <v>99</v>
+      </c>
+      <c r="C6" s="16">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="20">
+        <v>101</v>
+      </c>
+      <c r="C7" s="16">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAAB11A-4572-4BB6-8129-545967FACFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40088266-B1EF-40D2-81A7-710CF5D1E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java后端岗位要求" sheetId="1" r:id="rId1"/>
-    <sheet name="杭苏锡常" sheetId="6" r:id="rId2"/>
-    <sheet name="大中小厂" sheetId="2" r:id="rId3"/>
-    <sheet name="信息差" sheetId="3" r:id="rId4"/>
-    <sheet name="厂间对比" sheetId="5" r:id="rId5"/>
+    <sheet name="大中小厂" sheetId="2" r:id="rId2"/>
+    <sheet name="信息差" sheetId="3" r:id="rId3"/>
+    <sheet name="杭苏锡常" sheetId="6" r:id="rId4"/>
+    <sheet name="对比因素" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="329">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,48 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q：核心组为啥还穷哇？
-A：核心组基本大锅饭，互联网国企</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q：wxg和ieg核心年终都特别高
-A：wxg的base偏低；ieg只有个别项目组在新项目上线的时候会出现很高年终，不是常态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慎重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团金服 技术平台 非核心，慎重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红书广告还是算了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度去年校招给的还挺高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度大搜就算了，招的百度大搜就算了，招的还没有裁得多还没有裁得多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>淘天、云、国际电商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,103 +243,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>也就小红书主推&amp;京东零售好一些，剩下要么马上被ban要么n年老业务没增长了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美团搜索核心个屁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度meg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base重要！一但跳槽base决定了下一家的参考标准，各种补贴一次性的东西不要过多考虑，除非总包真的多了很多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯：校招电话是可以打通的，流程有问题可以打校招电话push HR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东：大部分 HC 都在北京，这 2 年校招开的挺不错的，今年据说会开的更高(不过总包有点虚，工资会带绩效)。另外亦庄远离市区房租便宜但交通不太方便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节：HC 不多，且内部很多长期实习的同学争取 HC，竞争激烈。薪资上下限差异很大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏、有道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>美团：大池子会无限捞，官网显示流程结束没关系等着就好。校招大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🥬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>比例很大，有些部门会超发 offer</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快手：快手秋招无限复活赛，挂了可以重新在投递～主要 base在北京，深圳很少。另外手子能开的挺高的，挺愿意给的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米：校招薪资不高，但是 peace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大疆：HC 很少，筛选标准感觉比较靠运气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDD：给的多给的多给的多！主要在上海和广州，据说广州这边之后会搬来深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红书：校招给的很多很多，但 HC 很少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得物：校招给的也同样挺高的，去年 HC 不少，但是据说加班很猛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>强度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,22 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科大讯飞：笔试居然有附加题！！没看见，直接漏题笔试挂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要多面试就算失败了也不要紧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面试体验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,59 +351,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先去，不合适跑路就行，包吃住更不用犹豫，一边干一边找，白嫖2000不血赚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发帖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引流：字节跳动，阿里，腾讯，百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯hr的话一个标点符号都不能信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛油大佬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微软</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">二面开场要求英文自我介绍和简单对话了...还是老老实实准备吧     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二面完一礼拜HR会打电话给口头offer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> “Assessment Center（评估中心）+ Additional（附加）面试”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O365暑期实习：2.28笔试（英文题目）、3.15一面、3.19lead面、3.24信息收集、3.31offer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中英文简历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1671,6 +1472,311 @@
   </si>
   <si>
     <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端、无线、计算 &gt; 数通、缅北云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为 | 数通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团 | 金服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书 | 广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度 | 大搜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团 | 搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招的还没有裁得多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试有附加题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base / HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招薪资高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这 2 年校招开的挺不错的，今年据说会开的更高(不过总包有点虚，工资会带绩效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋招无限复活赛，挂了可以重新在投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外手子能开的挺高的，挺愿意给的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大池子会无限捞，官网显示流程结束没关系等着就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招大白菜比例很大，有些部门会超发 offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班很猛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非核心，慎重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程有问题可以打校招电话push HR
+hr的话一个标点符号都不能信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base偏低，年终高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑期实习：2.28笔试（英文题目）、3.15一面、3.19lead面、3.24信息收集、3.31offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软 | Office365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中英文简历
+二面开场要求英文自我介绍和简单对话
+二面完一礼拜HR会打电话给口头offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资上下限差异很大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC 少
+筛选靠运气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC 多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京、东莞、南京、西安
+南研所12000人、数通占1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给钱多</t>
+  </si>
+  <si>
+    <t>上海青浦，房租便宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京亦庄远离，房租便宜，交通不便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京多，深圳很少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海、广州
+据说广州会搬深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给的多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新项目上线时高年终，不是常态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招给的很多</t>
+  </si>
+  <si>
+    <t>HC 很少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC 少，且实习生竞争HC激烈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招薪资不高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招给的很多很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>⭐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>京东 | 零售</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>⭐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>华为 | 终端</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>⭐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小红书 | 主推</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>⭐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>腾讯 | IEG</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>⭐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>腾讯 | WXG</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1701,12 +1807,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1739,6 +1839,13 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1970,9 +2077,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1992,18 +2099,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2034,32 +2132,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2079,97 +2210,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="fill" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="fill" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="134"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2244,6 +2374,26 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2260,78 +2410,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2370,41 +2448,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+  <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
+    <sortCondition ref="A1:A31"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2691,67 +2787,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2761,514 +2857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5E0F3C-30C4-4336-88FD-012C7F5A8329}">
-  <dimension ref="A1:H45"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.640625" style="28" customWidth="1"/>
-    <col min="4" max="5" width="20.640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="20.640625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="20.640625" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
-      <c r="B41" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="A45" s="25"/>
-      <c r="B45" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B742DD32-DB14-42AA-92E2-9F2A36E24884}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3278,10 +2871,10 @@
     <col min="3" max="3" width="25.640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="40.640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="25.640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.640625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="24.640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="24.640625" style="44" customWidth="1"/>
-    <col min="9" max="10" width="25.640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="24.640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="24.640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.640625" style="24" customWidth="1"/>
+    <col min="9" max="10" width="25.640625" style="36" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -3299,778 +2892,781 @@
         <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>87</v>
+        <v>56</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>215</v>
+        <v>50</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="F11" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="56" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="F12" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="H9" s="44" t="s">
+      <c r="F14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="38" t="s">
+      <c r="G15" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="H10" s="44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="43" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G16" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H16" s="24" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="H16" s="44" t="s">
+      <c r="J16" s="36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>319</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="J22" s="56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G29" s="38" t="s">
+      <c r="C39" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H39" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="I29" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="J33" s="56" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="J35" s="56" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>321</v>
+      <c r="B40" s="32" t="s">
+        <v>277</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="46" t="s">
-        <v>309</v>
+        <v>57</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>320</v>
+      <c r="B41" s="32" t="s">
+        <v>276</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="46" t="s">
-        <v>310</v>
+        <v>58</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>313</v>
+      <c r="B42" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="G43" s="38" t="s">
-        <v>300</v>
+      <c r="B43" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="52" t="s">
-        <v>320</v>
+      <c r="B44" s="32" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="52" t="s">
-        <v>320</v>
+      <c r="B45" s="32" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="J46" s="56" t="s">
-        <v>308</v>
+        <v>58</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4088,280 +3684,777 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D197D62-2100-4C19-B8B1-1F653B1805D8}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="80.640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.640625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="35.640625" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D1" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="14" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.3" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="E15" s="45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>124</v>
+      <c r="E18" s="45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5E0F3C-30C4-4336-88FD-012C7F5A8329}">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.640625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="6.640625" style="54" customWidth="1"/>
+    <col min="4" max="5" width="20.640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.640625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="47"/>
+      <c r="B13" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="47"/>
+      <c r="B22" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A23" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="49"/>
+      <c r="B39" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A41" s="51"/>
+      <c r="B41" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A42" s="51"/>
+      <c r="B42" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A43" s="51"/>
+      <c r="B43" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A44" s="51"/>
+      <c r="B44" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A45" s="51"/>
+      <c r="B45" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4370,7 +4463,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4380,80 +4473,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>95</v>
+      <c r="A1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="A2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="12">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="16">
+        <v>70</v>
+      </c>
+      <c r="C3" s="13">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="A4" s="43"/>
+      <c r="B4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
-        <v>104</v>
+      <c r="A5" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="16">
+        <v>73</v>
+      </c>
+      <c r="C5" s="13">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="16">
+        <v>72</v>
+      </c>
+      <c r="C6" s="13">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="16">
+        <v>74</v>
+      </c>
+      <c r="C7" s="13">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40088266-B1EF-40D2-81A7-710CF5D1E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B3C9D-7A6C-4B6E-B194-E63ED60EC112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Java后端岗位要求" sheetId="1" r:id="rId1"/>
-    <sheet name="大中小厂" sheetId="2" r:id="rId2"/>
-    <sheet name="信息差" sheetId="3" r:id="rId3"/>
-    <sheet name="杭苏锡常" sheetId="6" r:id="rId4"/>
-    <sheet name="对比因素" sheetId="5" r:id="rId5"/>
+    <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
+    <sheet name="Java后端岗位要求" sheetId="1" r:id="rId2"/>
+    <sheet name="大中小厂" sheetId="2" r:id="rId3"/>
+    <sheet name="信息差" sheetId="3" r:id="rId4"/>
+    <sheet name="杭苏锡常" sheetId="6" r:id="rId5"/>
+    <sheet name="对比因素" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="367">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1779,12 +1780,155 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云 弹性计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉JAVA/C/C++/Python等一门或多门语言
+2.具备扎实的数据结构、算法基础
+3.熟悉计算机网络、数据库、操作系统相关知识
+4.了解OpenStack、K8S、容器等相关技术优先，了解云计算相关知识优先
+5. 有竞赛获奖、论文、专利等加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.aliyun.com/campus/qrcode/apply/positions?code=QL4pw6k9zZPnEAnzf/O4IuTzt30hduUFid9K3CXamSs=</t>
+  </si>
+  <si>
+    <t>邮件标题：实习-姓名-学校-期望实习城市
+附件：个人简历
+投递邮箱地址：houbo.hb@alibaba-inc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000+HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/university/oppo/campus/post?shareId=9501</t>
+  </si>
+  <si>
+    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
+  </si>
+  <si>
+    <t>7000+HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯企业发展事业部CDG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京/上海</t>
+  </si>
+  <si>
+    <t>高德地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.amap.com/campus/home?lang=zh</t>
+  </si>
+  <si>
+    <t>腾讯微信事业部WXG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发类</t>
+  </si>
+  <si>
+    <t>https://careers.aliyun.com/campus/home?from=gzhWeChat&amp;lang=zh</t>
+  </si>
+  <si>
+    <t>阿里饿了么</t>
+  </si>
+  <si>
+    <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvpperD0fyh5bZrSMsdK3weLi68%3D</t>
+  </si>
+  <si>
+    <t>字节生活服务研发团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?keywords=%E7%94%9F%E6%B4%BB%E6%9C%8D%E5%8A%A1&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
+  </si>
+  <si>
+    <t>https://talent.taotian.com/campus/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节抖音研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?keywords=%E6%8A%96%E9%9F%B3%E7%A0%94%E5%8F%91&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
+  </si>
+  <si>
+    <t>字节用户增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?keywords=%E7%94%A8%E6%88%B7%E5%A2%9E%E9%95%BF&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/9aIQxIY-yFQe-IslTGwVzQ</t>
+  </si>
+  <si>
+    <t>campus.jd.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,6 +1990,32 @@
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2079,7 +2249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2192,6 +2362,37 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2210,40 +2411,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2251,7 +2431,102 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2262,6 +2537,29 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2393,47 +2691,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2448,57 +2705,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:H15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+  <autoFilter ref="A1:H15" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{535F51AC-F57F-434A-BF63-03C31B563330}" name="投递要求" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{64B4E1CD-9427-4901-A600-7C139AAD607E}" name="JD" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知链接" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2766,11 +3043,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.640625" customWidth="1"/>
+    <col min="2" max="3" width="15.640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="15.640625" style="16" customWidth="1"/>
+    <col min="6" max="8" width="15.640625" style="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{BEF4337B-FE9F-4DE9-8783-7A9426763486}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2856,7 +3365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B742DD32-DB14-42AA-92E2-9F2A36E24884}">
   <dimension ref="A1:J46"/>
   <sheetViews>
@@ -3684,7 +4193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D197D62-2100-4C19-B8B1-1F653B1805D8}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -3695,7 +4204,7 @@
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.640625" style="3" customWidth="1"/>
-    <col min="2" max="6" width="35.640625" style="45" customWidth="1"/>
+    <col min="2" max="6" width="35.640625" style="39" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -3703,19 +4212,19 @@
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3723,7 +4232,7 @@
       <c r="A2" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="39" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3731,7 +4240,7 @@
       <c r="A3" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="39" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3739,13 +4248,13 @@
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="39" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3753,7 +4262,7 @@
       <c r="A5" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3761,10 +4270,10 @@
       <c r="A6" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="39" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3772,10 +4281,10 @@
       <c r="A7" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="39" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3783,7 +4292,7 @@
       <c r="A8" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="39" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3791,7 +4300,7 @@
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="39" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3799,13 +4308,13 @@
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="39" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3813,10 +4322,10 @@
       <c r="A11" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="39" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3824,7 +4333,7 @@
       <c r="A12" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="39" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3832,7 +4341,7 @@
       <c r="A13" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="39" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3840,10 +4349,10 @@
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="39" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3851,7 +4360,7 @@
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="39" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3859,7 +4368,7 @@
       <c r="A16" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="39" t="s">
         <v>318</v>
       </c>
     </row>
@@ -3867,7 +4376,7 @@
       <c r="A17" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="39" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3875,7 +4384,7 @@
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="39" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3883,7 +4392,7 @@
       <c r="A19" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="39" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3891,13 +4400,13 @@
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="39" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3905,7 +4414,7 @@
       <c r="A21" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="39" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3913,13 +4422,13 @@
       <c r="A22" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="39" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3927,10 +4436,10 @@
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="39" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3938,514 +4447,11 @@
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="39" t="s">
         <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5E0F3C-30C4-4336-88FD-012C7F5A8329}">
-  <dimension ref="A1:H45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.640625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="6.640625" style="54" customWidth="1"/>
-    <col min="4" max="5" width="20.640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20.640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="20.640625" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="51"/>
-      <c r="B41" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A42" s="51"/>
-      <c r="B42" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="A45" s="51"/>
-      <c r="B45" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4459,6 +4465,509 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5E0F3C-30C4-4336-88FD-012C7F5A8329}">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="6.640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="20.640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.640625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A23" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A41" s="44"/>
+      <c r="B41" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A42" s="44"/>
+      <c r="B42" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A43" s="44"/>
+      <c r="B43" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A44" s="44"/>
+      <c r="B44" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A45" s="44"/>
+      <c r="B45" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DB9667-D34F-4961-9E25-8E658D691383}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -4484,7 +4993,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -4495,7 +5004,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -4504,7 +5013,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -4513,7 +5022,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="53" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4524,7 +5033,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -4533,7 +5042,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -4542,11 +5051,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B3C9D-7A6C-4B6E-B194-E63ED60EC112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902F9ECB-5336-4A69-9309-B52774FCC1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1809,10 +1809,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿里云 弹性计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.熟悉JAVA/C/C++/Python等一门或多门语言
 2.具备扎实的数据结构、算法基础
 3.熟悉计算机网络、数据库、操作系统相关知识
@@ -1921,6 +1917,10 @@
   </si>
   <si>
     <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云弹性计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2393,6 +2393,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2409,21 +2424,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2432,83 +2432,6 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2691,6 +2614,83 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2705,77 +2705,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:H15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
-  <autoFilter ref="A1:H15" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:H16" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:H16" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门"/>
-    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{535F51AC-F57F-434A-BF63-03C31B563330}" name="投递要求" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{64B4E1CD-9427-4901-A600-7C139AAD607E}" name="JD" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知链接" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{535F51AC-F57F-434A-BF63-03C31B563330}" name="投递要求" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{64B4E1CD-9427-4901-A600-7C139AAD607E}" name="JD" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知链接" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3044,10 +3044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3055,7 +3055,7 @@
     <col min="1" max="1" width="25.640625" customWidth="1"/>
     <col min="2" max="3" width="15.640625" style="7" customWidth="1"/>
     <col min="4" max="5" width="15.640625" style="16" customWidth="1"/>
-    <col min="6" max="8" width="15.640625" style="58" customWidth="1"/>
+    <col min="6" max="8" width="15.640625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3068,103 +3068,103 @@
       <c r="C1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="53" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="53" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50" t="s">
         <v>342</v>
-      </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56" t="s">
-        <v>354</v>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57" t="s">
-        <v>359</v>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56" t="s">
-        <v>352</v>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="F6" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>337</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
         <v>348</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>287</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="H8" s="50" t="s">
         <v>364</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -3172,38 +3172,38 @@
         <v>16</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56" t="s">
-        <v>366</v>
+        <v>344</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56" t="s">
-        <v>344</v>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56" t="s">
-        <v>344</v>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -3211,55 +3211,60 @@
         <v>6</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57" t="s">
         <v>340</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50" t="s">
         <v>360</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50" t="s">
         <v>357</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56" t="s">
-        <v>363</v>
-      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4993,7 +4998,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="57" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5004,7 +5009,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="53"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5013,7 +5018,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5022,7 +5027,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="58" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5033,7 +5038,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="53"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -5042,7 +5047,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="53"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5051,11 +5056,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902F9ECB-5336-4A69-9309-B52774FCC1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E56662-1A06-4420-9C55-2F187D56CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="394">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1789,43 +1789,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投递链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投递要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.熟悉JAVA/C/C++/Python等一门或多门语言
-2.具备扎实的数据结构、算法基础
-3.熟悉计算机网络、数据库、操作系统相关知识
-4.了解OpenStack、K8S、容器等相关技术优先，了解云计算相关知识优先
-5. 有竞赛获奖、论文、专利等加分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://careers.aliyun.com/campus/qrcode/apply/positions?code=QL4pw6k9zZPnEAnzf/O4IuTzt30hduUFid9K3CXamSs=</t>
   </si>
   <si>
-    <t>邮件标题：实习-姓名-学校-期望实习城市
-附件：个人简历
-投递邮箱地址：houbo.hb@alibaba-inc.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1848,10 +1822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腾讯企业发展事业部CDG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北京/上海</t>
   </si>
   <si>
@@ -1862,26 +1832,15 @@
     <t>https://talent.amap.com/campus/home?lang=zh</t>
   </si>
   <si>
-    <t>腾讯微信事业部WXG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软件开发类</t>
   </si>
   <si>
     <t>https://careers.aliyun.com/campus/home?from=gzhWeChat&amp;lang=zh</t>
   </si>
   <si>
-    <t>阿里饿了么</t>
-  </si>
-  <si>
     <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvpperD0fyh5bZrSMsdK3weLi68%3D</t>
   </si>
   <si>
-    <t>字节生活服务研发团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后端</t>
   </si>
   <si>
@@ -1895,20 +1854,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字节抖音研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://job.toutiao.com/campus/m/position?keywords=%E6%8A%96%E9%9F%B3%E7%A0%94%E5%8F%91&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
   </si>
   <si>
-    <t>字节用户增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.toutiao.com/campus/m/position?keywords=%E7%94%A8%E6%88%B7%E5%A2%9E%E9%95%BF&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
-  </si>
-  <si>
     <t>https://mp.weixin.qq.com/s/9aIQxIY-yFQe-IslTGwVzQ</t>
   </si>
   <si>
@@ -1920,7 +1868,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿里云弹性计算</t>
+    <t>https://u.alipay.cn/_N6Ibaxr7EpDy9gXfmGKHj</t>
+  </si>
+  <si>
+    <t>https://talent.taotian.com/campus/qrcode/home?code=t5Ln4%2F8ze3BjK_Cf_hSUI5jqd4sgUSMEz38SqFtWYu4%3D</t>
+  </si>
+  <si>
+    <t>通知/内推链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>https://zhaopin.meituan.com/web/campus?zp-from=hiring-campus-bole-elephant&amp;staffSsoId=23751624</t>
+  </si>
+  <si>
+    <t>https://jobs.mihoyo.com/m/?recommendationCode=9QK8&amp;isRecommendation=true#/campus/position</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/aKCZE7UH1rIVlluzPxp7jQ</t>
+  </si>
+  <si>
+    <t>网易雷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momenta</t>
+  </si>
+  <si>
+    <t>https://momenta.jobs.feishu.cn/s/9Nug-tZuUhA</t>
+  </si>
+  <si>
+    <t>内推码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ZUB7AS</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/JyQHG9vzSzubAdqTiscRIA</t>
+  </si>
+  <si>
+    <t>京东 JD YOUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XK116</t>
+  </si>
+  <si>
+    <t>https://campus.jd.com/api/wx/position/index?type=internship#/</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/sOJucmp0gyRcEKqSdXuy5w</t>
+  </si>
+  <si>
+    <t>9QK8</t>
+  </si>
+  <si>
+    <t>3.8笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里 蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 抖音剪映CapCut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?keywords=%E5%89%AA%E6%98%A0&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=3&amp;external_referral_code=BEGNWJ8</t>
+  </si>
+  <si>
+    <t>BhbrrQhTe</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/UumzrD6auELhXITzYy8KIA
+https://campus.kuaishou.cn/#/campus/jobs?code=BhbrrQhTe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限复活甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里 饿了么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvppekyikynKCou5qJr0pkEyTv0%3D</t>
+  </si>
+  <si>
+    <t>北京/上海/杭州</t>
+  </si>
+  <si>
+    <t>杭州，北京</t>
+  </si>
+  <si>
+    <t>6GJN60H</t>
+  </si>
+  <si>
+    <t>阿里 淘天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云 弹性计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 WXG微信事业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CDG企业发展事业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 抖音研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 生活服务研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr-campus.vivo.com/campus/jobs?memory=%7B%7D&amp;silence=1</t>
+  </si>
+  <si>
+    <t>ES1W02</t>
+  </si>
+  <si>
+    <t>投递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1928,7 +2011,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2012,6 +2095,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2249,7 +2339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2393,9 +2483,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
@@ -2425,6 +2512,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2432,6 +2525,80 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="39">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="134"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2614,83 +2781,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2705,77 +2795,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:H16" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:H16" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H15">
-    <sortCondition ref="A1:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G24" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
+    <sortCondition ref="A1:A23"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门"/>
-    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{535F51AC-F57F-434A-BF63-03C31B563330}" name="投递要求" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{64B4E1CD-9427-4901-A600-7C139AAD607E}" name="JD" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知链接" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="30"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3044,21 +3133,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.640625" customWidth="1"/>
-    <col min="2" max="3" width="15.640625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="15.640625" style="16" customWidth="1"/>
-    <col min="6" max="8" width="15.640625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="25.640625" style="48" customWidth="1"/>
+    <col min="2" max="5" width="15.640625" style="7" customWidth="1"/>
+    <col min="6" max="7" width="15.640625" style="51" customWidth="1"/>
+    <col min="8" max="16" width="9.140625" style="7"/>
+    <col min="17" max="17" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -3068,209 +3158,338 @@
       <c r="C1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>366</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="59"/>
+      <c r="F5" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="G16" s="49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="49"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
+      <c r="E22" s="59"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>359</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>361</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3.06</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H12" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{BEF4337B-FE9F-4DE9-8783-7A9426763486}"/>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4998,7 +5217,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5009,7 +5228,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5018,7 +5237,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5027,7 +5246,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5038,7 +5257,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -5047,7 +5266,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5056,11 +5275,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E56662-1A06-4420-9C55-2F187D56CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D2C97-9436-40D7-8FAC-BFE50CB027F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="417">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1938,10 +1938,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字节 抖音剪映CapCut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://job.toutiao.com/campus/m/position?keywords=%E5%89%AA%E6%98%A0&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=3&amp;external_referral_code=BEGNWJ8</t>
   </si>
   <si>
@@ -1981,14 +1977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腾讯 WXG微信事业部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CDG企业发展事业部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字节 抖音研发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2005,6 +1993,94 @@
   <si>
     <t>投递</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bilibili.com/campus/positions?type=0&amp;token=7dd8726b-8fdf-4427-a811-2cca162432df</t>
+  </si>
+  <si>
+    <t>D396K5</t>
+  </si>
+  <si>
+    <t>campusitAjZhOjZ</t>
+  </si>
+  <si>
+    <t>https://campus.kuaishou.cn/recruit/campus/e/h5/#/campus/jobs?code=campusitAjZhOjZ</t>
+  </si>
+  <si>
+    <t>虾皮</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/campus_apply/shopee/2962?recommendCode=DSECVCRH&amp;hash=%23%2Fjobs#/jobs</t>
+  </si>
+  <si>
+    <t>DSECVCRH</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>X9217808</t>
+  </si>
+  <si>
+    <t>每人可投递两个志愿</t>
+  </si>
+  <si>
+    <t>自动驾驶遥遥领先企业，薪资很高，实习也是</t>
+  </si>
+  <si>
+    <t>腾讯 WXG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CDG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 抖音剪映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CSIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw</t>
+  </si>
+  <si>
+    <t>腾讯 IEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ</t>
+  </si>
+  <si>
+    <t>腾讯 PCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ</t>
+  </si>
+  <si>
+    <t>腾讯 TEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/48Mc43QSiSNUBsvylhRazg</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2495,6 +2571,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2513,11 +2595,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2525,80 +2610,6 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="134"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2781,6 +2792,80 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="134"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2795,76 +2880,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G24" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
-    <sortCondition ref="A1:A23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:G32" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:G32" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G32">
+    <sortCondition ref="A1:A32"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3133,18 +3218,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.640625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="20.2109375" style="48" customWidth="1"/>
     <col min="2" max="5" width="15.640625" style="7" customWidth="1"/>
     <col min="6" max="7" width="15.640625" style="51" customWidth="1"/>
-    <col min="8" max="16" width="9.140625" style="7"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="13" width="9.140625" style="62"/>
+    <col min="14" max="16" width="9.140625" style="7"/>
     <col min="17" max="17" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3171,13 +3258,15 @@
         <v>331</v>
       </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="I1" s="61" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -3187,7 +3276,10 @@
       <c r="A2" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="53" t="s">
         <v>365</v>
       </c>
       <c r="F2" s="49" t="s">
@@ -3201,7 +3293,7 @@
       <c r="A3" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="49"/>
       <c r="G3" s="49" t="s">
         <v>337</v>
@@ -3209,287 +3301,383 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="E4" s="59"/>
+        <v>401</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>402</v>
+      </c>
       <c r="F4" s="49" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="G5" s="49"/>
+        <v>23</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49" t="s">
-        <v>345</v>
-      </c>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>384</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>349</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" s="59"/>
+        <v>373</v>
+      </c>
+      <c r="E8" s="53"/>
       <c r="F8" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>344</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49" t="s">
-        <v>333</v>
+        <v>382</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="49"/>
+        <v>145</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="49" t="s">
+        <v>333</v>
+      </c>
       <c r="G10" s="49" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="49" t="s">
-        <v>351</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="49" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>368</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49" t="s">
-        <v>369</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="G13" s="49"/>
+        <v>341</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="E14" s="59"/>
+        <v>287</v>
+      </c>
+      <c r="E14" s="53"/>
       <c r="F14" s="49" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="49"/>
+        <v>351</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>371</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>370</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="F15" s="49"/>
       <c r="G15" s="49" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G18" s="49"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="49" t="s">
+      <c r="E20" s="53"/>
+      <c r="F20" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G20" s="49" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="C17" s="7" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="E21" s="59"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="49"/>
       <c r="G21" s="49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="B22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="G22" s="49"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="I24" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J24" s="62" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="G25" s="49"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="G27" s="49"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G28" s="49"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49" t="s">
+      <c r="E31" s="53"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49" t="s">
+      <c r="E32" s="53"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>392</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3.06</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="G29" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5217,7 +5405,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5228,7 +5416,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="57"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5237,7 +5425,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5246,7 +5434,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5257,7 +5445,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="57"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -5266,7 +5454,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5275,11 +5463,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D2C97-9436-40D7-8FAC-BFE50CB027F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174AF1B-6954-4D81-B91C-A3BC9EF45AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23304" yWindow="4464" windowWidth="22152" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="419">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1808,279 +1808,291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
+  </si>
+  <si>
+    <t>7000+HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京/上海</t>
+  </si>
+  <si>
+    <t>高德地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.amap.com/campus/home?lang=zh</t>
+  </si>
+  <si>
+    <t>软件开发类</t>
+  </si>
+  <si>
+    <t>https://careers.aliyun.com/campus/home?from=gzhWeChat&amp;lang=zh</t>
+  </si>
+  <si>
+    <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvpperD0fyh5bZrSMsdK3weLi68%3D</t>
+  </si>
+  <si>
+    <t>后端</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?keywords=%E7%94%9F%E6%B4%BB%E6%9C%8D%E5%8A%A1&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
+  </si>
+  <si>
+    <t>https://talent.taotian.com/campus/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?keywords=%E6%8A%96%E9%9F%B3%E7%A0%94%E5%8F%91&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/9aIQxIY-yFQe-IslTGwVzQ</t>
+  </si>
+  <si>
+    <t>campus.jd.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://u.alipay.cn/_N6Ibaxr7EpDy9gXfmGKHj</t>
+  </si>
+  <si>
+    <t>https://talent.taotian.com/campus/qrcode/home?code=t5Ln4%2F8ze3BjK_Cf_hSUI5jqd4sgUSMEz38SqFtWYu4%3D</t>
+  </si>
+  <si>
+    <t>通知/内推链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>https://jobs.mihoyo.com/m/?recommendationCode=9QK8&amp;isRecommendation=true#/campus/position</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/aKCZE7UH1rIVlluzPxp7jQ</t>
+  </si>
+  <si>
+    <t>网易雷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momenta</t>
+  </si>
+  <si>
+    <t>https://momenta.jobs.feishu.cn/s/9Nug-tZuUhA</t>
+  </si>
+  <si>
+    <t>内推码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ZUB7AS</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/JyQHG9vzSzubAdqTiscRIA</t>
+  </si>
+  <si>
+    <t>京东 JD YOUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XK116</t>
+  </si>
+  <si>
+    <t>https://campus.jd.com/api/wx/position/index?type=internship#/</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/sOJucmp0gyRcEKqSdXuy5w</t>
+  </si>
+  <si>
+    <t>9QK8</t>
+  </si>
+  <si>
+    <t>3.8笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里 蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?keywords=%E5%89%AA%E6%98%A0&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=3&amp;external_referral_code=BEGNWJ8</t>
+  </si>
+  <si>
+    <t>无限复活甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里 饿了么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvppekyikynKCou5qJr0pkEyTv0%3D</t>
+  </si>
+  <si>
+    <t>北京/上海/杭州</t>
+  </si>
+  <si>
+    <t>杭州，北京</t>
+  </si>
+  <si>
+    <t>6GJN60H</t>
+  </si>
+  <si>
+    <t>阿里 淘天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云 弹性计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 抖音研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 生活服务研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES1W02</t>
+  </si>
+  <si>
+    <t>投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bilibili.com/campus/positions?type=0&amp;token=7dd8726b-8fdf-4427-a811-2cca162432df</t>
+  </si>
+  <si>
+    <t>D396K5</t>
+  </si>
+  <si>
+    <t>campusitAjZhOjZ</t>
+  </si>
+  <si>
+    <t>虾皮</t>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/campus_apply/shopee/2962?recommendCode=DSECVCRH&amp;hash=%23%2Fjobs#/jobs</t>
+  </si>
+  <si>
+    <t>DSECVCRH</t>
+  </si>
+  <si>
     <t>OPPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X9217808</t>
+  </si>
+  <si>
+    <t>每人可投递两个志愿</t>
+  </si>
+  <si>
+    <t>自动驾驶遥遥领先企业，薪资很高，实习也是</t>
+  </si>
+  <si>
+    <t>腾讯 WXG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CDG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 抖音剪映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CSIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw</t>
+  </si>
+  <si>
+    <t>腾讯 IEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ</t>
+  </si>
+  <si>
+    <t>腾讯 PCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ</t>
+  </si>
+  <si>
+    <t>腾讯 TEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/48Mc43QSiSNUBsvylhRazg</t>
   </si>
   <si>
     <t>https://careers.oppo.com/university/oppo/campus/post?shareId=9501</t>
-  </si>
-  <si>
-    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
-  </si>
-  <si>
-    <t>7000+HC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京/上海</t>
-  </si>
-  <si>
-    <t>高德地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.amap.com/campus/home?lang=zh</t>
-  </si>
-  <si>
-    <t>软件开发类</t>
-  </si>
-  <si>
-    <t>https://careers.aliyun.com/campus/home?from=gzhWeChat&amp;lang=zh</t>
-  </si>
-  <si>
-    <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvpperD0fyh5bZrSMsdK3weLi68%3D</t>
-  </si>
-  <si>
-    <t>后端</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>https://job.toutiao.com/campus/m/position?keywords=%E7%94%9F%E6%B4%BB%E6%9C%8D%E5%8A%A1&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
-  </si>
-  <si>
-    <t>https://talent.taotian.com/campus/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.toutiao.com/campus/m/position?keywords=%E6%8A%96%E9%9F%B3%E7%A0%94%E5%8F%91&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/9aIQxIY-yFQe-IslTGwVzQ</t>
-  </si>
-  <si>
-    <t>campus.jd.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://u.alipay.cn/_N6Ibaxr7EpDy9gXfmGKHj</t>
-  </si>
-  <si>
-    <t>https://talent.taotian.com/campus/qrcode/home?code=t5Ln4%2F8ze3BjK_Cf_hSUI5jqd4sgUSMEz38SqFtWYu4%3D</t>
-  </si>
-  <si>
-    <t>通知/内推链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京/深圳/成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://zhaopin.meituan.com/web/campus?zp-from=hiring-campus-bole-elephant&amp;staffSsoId=23751624</t>
-  </si>
-  <si>
-    <t>https://jobs.mihoyo.com/m/?recommendationCode=9QK8&amp;isRecommendation=true#/campus/position</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/aKCZE7UH1rIVlluzPxp7jQ</t>
-  </si>
-  <si>
-    <t>网易雷火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Momenta</t>
-  </si>
-  <si>
-    <t>https://momenta.jobs.feishu.cn/s/9Nug-tZuUhA</t>
-  </si>
-  <si>
-    <t>内推码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ZUB7AS</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/JyQHG9vzSzubAdqTiscRIA</t>
-  </si>
-  <si>
-    <t>京东 JD YOUNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XK116</t>
-  </si>
-  <si>
-    <t>https://campus.jd.com/api/wx/position/index?type=internship#/</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/sOJucmp0gyRcEKqSdXuy5w</t>
-  </si>
-  <si>
-    <t>9QK8</t>
-  </si>
-  <si>
-    <t>3.8笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里 蚂蚁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.9笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.toutiao.com/campus/m/position?keywords=%E5%89%AA%E6%98%A0&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=3&amp;external_referral_code=BEGNWJ8</t>
-  </si>
-  <si>
-    <t>BhbrrQhTe</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/UumzrD6auELhXITzYy8KIA
-https://campus.kuaishou.cn/#/campus/jobs?code=BhbrrQhTe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限复活甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里 饿了么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvppekyikynKCou5qJr0pkEyTv0%3D</t>
-  </si>
-  <si>
-    <t>北京/上海/杭州</t>
-  </si>
-  <si>
-    <t>杭州，北京</t>
-  </si>
-  <si>
-    <t>6GJN60H</t>
-  </si>
-  <si>
-    <t>阿里 淘天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里云 弹性计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节 抖音研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节 生活服务研发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://hr-campus.vivo.com/campus/jobs?memory=%7B%7D&amp;silence=1</t>
-  </si>
-  <si>
-    <t>ES1W02</t>
-  </si>
-  <si>
-    <t>投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jobs.bilibili.com/campus/positions?type=0&amp;token=7dd8726b-8fdf-4427-a811-2cca162432df</t>
-  </si>
-  <si>
-    <t>D396K5</t>
-  </si>
-  <si>
-    <t>campusitAjZhOjZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://campus.kuaishou.cn/recruit/campus/e/h5/#/campus/jobs?code=campusitAjZhOjZ</t>
-  </si>
-  <si>
-    <t>虾皮</t>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/m/campus_apply/shopee/2962?recommendCode=DSECVCRH&amp;hash=%23%2Fjobs#/jobs</t>
-  </si>
-  <si>
-    <t>DSECVCRH</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <t>X9217808</t>
-  </si>
-  <si>
-    <t>每人可投递两个志愿</t>
-  </si>
-  <si>
-    <t>自动驾驶遥遥领先企业，薪资很高，实习也是</t>
-  </si>
-  <si>
-    <t>腾讯 WXG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CDG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节 抖音剪映</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CSIG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw</t>
-  </si>
-  <si>
-    <t>腾讯 IEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ</t>
-  </si>
-  <si>
-    <t>腾讯 PCG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ</t>
-  </si>
-  <si>
-    <t>腾讯 TEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/48Mc43QSiSNUBsvylhRazg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2415,7 +2427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2574,8 +2586,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2595,21 +2616,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="41">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2840,6 +2875,48 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <charset val="134"/>
       </font>
     </dxf>
@@ -2880,13 +2957,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:G32" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:G32" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G32">
-    <sortCondition ref="A1:A32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:I30" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:I30" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I30">
+    <sortCondition ref="A1:A30"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="36"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="34"/>
     <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
@@ -3218,19 +3297,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.2109375" style="48" customWidth="1"/>
-    <col min="2" max="5" width="15.640625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="15.640625" style="51" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
-    <col min="9" max="13" width="9.140625" style="62"/>
+    <col min="2" max="3" width="10.640625" style="57" customWidth="1"/>
+    <col min="4" max="7" width="15.640625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="15.640625" style="51" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="55"/>
     <col min="14" max="16" width="9.140625" style="7"/>
     <col min="17" max="17" width="9.140625" style="7" customWidth="1"/>
   </cols>
@@ -3239,34 +3318,33 @@
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="61" t="s">
-        <v>390</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>391</v>
-      </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -3274,414 +3352,460 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>365</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="G4" s="49"/>
+      <c r="I2" s="49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+    </row>
+    <row r="4" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="H4" s="70"/>
+      <c r="I4" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49" t="s">
-        <v>388</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="49" t="s">
-        <v>380</v>
-      </c>
-      <c r="G6" s="49"/>
+        <v>374</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
-        <v>345</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="G8" s="49"/>
+        <v>379</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>383</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>349</v>
+        <v>145</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49" t="s">
         <v>333</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49" t="s">
-        <v>333</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>395</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="G12" s="49"/>
+        <v>339</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49" t="s">
-        <v>342</v>
+        <v>287</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+    </row>
+    <row r="16" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66" t="s">
+        <v>418</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69" t="s">
+        <v>415</v>
+      </c>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="I18" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="G14" s="49" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>376</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>377</v>
-      </c>
-      <c r="G16" s="49"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>396</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>397</v>
-      </c>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="H21" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="G23" s="53"/>
+      <c r="H23" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G24" s="53"/>
+      <c r="H24" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="H25" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="49" t="s">
-        <v>358</v>
-      </c>
-      <c r="G18" s="49"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G28" s="53"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="E19" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="48" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="49" t="s">
-        <v>409</v>
-      </c>
-      <c r="G22" s="49"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="48" t="s">
-        <v>411</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="49" t="s">
-        <v>410</v>
-      </c>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="49" t="s">
-        <v>412</v>
-      </c>
-      <c r="G24" s="49"/>
-      <c r="I24" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="J24" s="62" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="49" t="s">
-        <v>414</v>
-      </c>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="G27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="48" t="s">
-        <v>398</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>399</v>
-      </c>
-      <c r="G28" s="49"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G29" s="53"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="B31" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49" t="s">
         <v>346</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G29" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="G9" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="I27" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
+    <hyperlink ref="H16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
+    <hyperlink ref="H15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5405,7 +5529,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5416,7 +5540,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5425,7 +5549,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5434,7 +5558,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="62" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5445,7 +5569,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -5454,7 +5578,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5463,11 +5587,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174AF1B-6954-4D81-B91C-A3BC9EF45AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBAF330-56C4-4D7F-81DE-024B7AFB36AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23304" yWindow="4464" windowWidth="22152" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22080" yWindow="4044" windowWidth="22152" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="420">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1998,100 +1998,105 @@
     <t>虾皮</t>
   </si>
   <si>
+    <t>DSECVCRH</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>X9217808</t>
+  </si>
+  <si>
+    <t>每人可投递两个志愿</t>
+  </si>
+  <si>
+    <t>自动驾驶遥遥领先企业，薪资很高，实习也是</t>
+  </si>
+  <si>
+    <t>腾讯 WXG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CDG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 抖音剪映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CSIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw</t>
+  </si>
+  <si>
+    <t>腾讯 IEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ</t>
+  </si>
+  <si>
+    <t>腾讯 PCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ</t>
+  </si>
+  <si>
+    <t>腾讯 TEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/48Mc43QSiSNUBsvylhRazg</t>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/university/oppo/campus/post?shareId=9501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京/深圳/成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhaopin.meituan.com/web/campus?zp-from=hiring-campus-bole-elephant&amp;staffSsoId=23751624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr-campus.vivo.com/campus/jobs?memory=%7B%7D&amp;silence=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.kuaishou.cn/recruit/campus/e/h5/#/campus/jobs?code=campusitAjZhOjZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://app.mokahr.com/m/campus_apply/shopee/2962?recommendCode=DSECVCRH&amp;hash=%23%2Fjobs#/jobs</t>
-  </si>
-  <si>
-    <t>DSECVCRH</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <t>X9217808</t>
-  </si>
-  <si>
-    <t>每人可投递两个志愿</t>
-  </si>
-  <si>
-    <t>自动驾驶遥遥领先企业，薪资很高，实习也是</t>
-  </si>
-  <si>
-    <t>腾讯 WXG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CDG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节 抖音剪映</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CSIG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw</t>
-  </si>
-  <si>
-    <t>腾讯 IEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ</t>
-  </si>
-  <si>
-    <t>腾讯 PCG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ</t>
-  </si>
-  <si>
-    <t>腾讯 TEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/48Mc43QSiSNUBsvylhRazg</t>
-  </si>
-  <si>
-    <t>https://careers.oppo.com/university/oppo/campus/post?shareId=9501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京/深圳/成都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhaopin.meituan.com/web/campus?zp-from=hiring-campus-bole-elephant&amp;staffSsoId=23751624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hr-campus.vivo.com/campus/jobs?memory=%7B%7D&amp;silence=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.kuaishou.cn/recruit/campus/e/h5/#/campus/jobs?code=campusitAjZhOjZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2598,24 +2603,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2639,6 +2626,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2957,8 +2962,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:I30" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:I30" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:I33" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:I33" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I30">
     <sortCondition ref="A1:A30"/>
   </sortState>
@@ -3297,10 +3302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3355,7 +3360,7 @@
         <v>359</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G2" s="53" t="s">
         <v>362</v>
@@ -3367,71 +3372,71 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>413</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="H3" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+    </row>
+    <row r="4" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>396</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>395</v>
-      </c>
-      <c r="H3" s="69" t="s">
-        <v>410</v>
-      </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-    </row>
-    <row r="4" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>412</v>
-      </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="68" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="62" t="s">
         <v>383</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="69" t="s">
-        <v>416</v>
-      </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="63" t="s">
+        <v>415</v>
+      </c>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
@@ -3560,63 +3565,63 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="65" t="s">
-        <v>411</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66" t="s">
+      <c r="B15" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+    </row>
+    <row r="16" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-    </row>
-    <row r="16" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>411</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66" t="s">
-        <v>418</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69" t="s">
-        <v>415</v>
-      </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>15</v>
       </c>
@@ -3633,7 +3638,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
@@ -3648,9 +3653,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>338</v>
@@ -3661,62 +3666,62 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I20" s="49"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="49" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I21" s="49"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="49" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I22" s="49"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G23" s="53"/>
       <c r="H23" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I23" s="49"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>341</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I24" s="49" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="48" t="s">
         <v>358</v>
       </c>
@@ -3726,19 +3731,34 @@
       </c>
       <c r="I25" s="49"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="G26" s="53" t="s">
-        <v>393</v>
-      </c>
-      <c r="H26" s="49" t="s">
+      <c r="B26" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="I26" s="49"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H26" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
         <v>6</v>
       </c>
@@ -3751,9 +3771,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G28" s="53"/>
       <c r="H28" s="49"/>
@@ -3761,7 +3781,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
         <v>381</v>
       </c>
@@ -3777,7 +3797,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
         <v>382</v>
       </c>
@@ -3792,6 +3812,21 @@
       <c r="I30" s="49" t="s">
         <v>346</v>
       </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G31" s="53"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G32" s="53"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G33" s="53"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3802,10 +3837,11 @@
     <hyperlink ref="H16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
     <hyperlink ref="I4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
     <hyperlink ref="H15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
+    <hyperlink ref="H26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5529,7 +5565,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="70" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5540,7 +5576,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5549,7 +5585,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="63"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5558,7 +5594,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="71" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5569,7 +5605,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -5578,7 +5614,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5587,11 +5623,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBAF330-56C4-4D7F-81DE-024B7AFB36AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94CA6C9-03C9-496D-AA81-834C29BE6EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22080" yWindow="4044" windowWidth="22152" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-206" yWindow="514" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="422">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2097,6 +2097,14 @@
   </si>
   <si>
     <t>03.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.13（乌龙）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2649,7 +2657,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2896,6 +2904,27 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2962,15 +2991,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:I33" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:I33" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:J33" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:J33" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J30">
     <sortCondition ref="A1:A30"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="36"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="34"/>
     <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
@@ -3302,24 +3332,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.2109375" style="48" customWidth="1"/>
-    <col min="2" max="3" width="10.640625" style="57" customWidth="1"/>
-    <col min="4" max="7" width="15.640625" style="7" customWidth="1"/>
-    <col min="8" max="9" width="15.640625" style="51" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="55"/>
-    <col min="14" max="16" width="9.140625" style="7"/>
-    <col min="17" max="17" width="9.140625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="10.640625" style="57" customWidth="1"/>
+    <col min="5" max="8" width="15.640625" style="7" customWidth="1"/>
+    <col min="9" max="10" width="15.640625" style="51" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="55"/>
+    <col min="15" max="17" width="9.140625" style="7"/>
+    <col min="18" max="18" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -3329,50 +3359,53 @@
       <c r="C1" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="K1" s="54"/>
       <c r="L1" s="54"/>
       <c r="M1" s="54"/>
-      <c r="N1" s="3"/>
+      <c r="N1" s="54"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G2" s="56" t="s">
         <v>396</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="J2" s="49" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="58" t="s">
         <v>393</v>
       </c>
@@ -3380,32 +3413,33 @@
         <v>410</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="F3" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="G3" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="H3" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="I3" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
-      <c r="N3" s="60"/>
+      <c r="N3" s="65"/>
       <c r="O3" s="60"/>
       <c r="P3" s="60"/>
       <c r="Q3" s="60"/>
-    </row>
-    <row r="4" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R3" s="60"/>
+    </row>
+    <row r="4" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>23</v>
       </c>
@@ -3415,157 +3449,158 @@
       <c r="C4" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="F4" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="62" t="s">
         <v>383</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="64"/>
+      <c r="J4" s="63" t="s">
         <v>415</v>
       </c>
-      <c r="J4" s="65"/>
       <c r="K4" s="65"/>
       <c r="L4" s="65"/>
       <c r="M4" s="65"/>
-      <c r="N4" s="60"/>
+      <c r="N4" s="65"/>
       <c r="O4" s="60"/>
       <c r="P4" s="60"/>
       <c r="Q4" s="60"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" s="60"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49" t="s">
+      <c r="H6" s="53"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="I7" s="49"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J7" s="49"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="H8" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="I8" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="J8" s="50" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="53"/>
+      <c r="I9" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="J9" s="49" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49" t="s">
+      <c r="H10" s="53"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="H11" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="I11" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="I11" s="49"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="53"/>
+      <c r="I13" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="J13" s="49" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="H14" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="49"/>
+      <c r="J14" s="49" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
         <v>105</v>
       </c>
@@ -3573,28 +3608,29 @@
         <v>410</v>
       </c>
       <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="60"/>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="60"/>
+      <c r="G15" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="H15" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="I15" s="63" t="s">
         <v>416</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="65"/>
       <c r="L15" s="65"/>
       <c r="M15" s="65"/>
-      <c r="N15" s="60"/>
+      <c r="N15" s="65"/>
       <c r="O15" s="60"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="60"/>
-    </row>
-    <row r="16" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R15" s="60"/>
+    </row>
+    <row r="16" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58" t="s">
         <v>355</v>
       </c>
@@ -3602,136 +3638,137 @@
         <v>410</v>
       </c>
       <c r="C16" s="59"/>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="E16" s="60"/>
       <c r="F16" s="60"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63" t="s">
+      <c r="G16" s="60"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="J16" s="64"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
-      <c r="N16" s="60"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="60"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="60"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" s="60"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="H17" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="I17" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="J17" s="49" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="53"/>
+      <c r="I18" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="J18" s="49" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49" t="s">
+      <c r="H19" s="53"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="53"/>
+      <c r="I20" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="I20" s="49"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J20" s="49"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="53"/>
+      <c r="I21" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="I21" s="49"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="53"/>
+      <c r="I22" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="I22" s="49"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J22" s="49"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="53"/>
+      <c r="I23" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="I23" s="49"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J23" s="49"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="53"/>
+      <c r="I24" s="49" t="s">
         <v>408</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="J24" s="49" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="53"/>
+      <c r="I25" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="I25" s="49"/>
-    </row>
-    <row r="26" spans="1:17" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="49"/>
+    </row>
+    <row r="26" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="58" t="s">
         <v>391</v>
       </c>
@@ -3739,105 +3776,108 @@
         <v>419</v>
       </c>
       <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
+      <c r="D26" s="59" t="s">
+        <v>421</v>
+      </c>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="60"/>
+      <c r="H26" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="I26" s="63" t="s">
         <v>418</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="J26" s="64"/>
       <c r="K26" s="65"/>
       <c r="L26" s="65"/>
       <c r="M26" s="65"/>
-      <c r="N26" s="60"/>
+      <c r="N26" s="65"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="60"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26" s="60"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50" t="s">
+      <c r="H27" s="53"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49" t="s">
+      <c r="H28" s="53"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49" t="s">
+      <c r="H29" s="53"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49" t="s">
+      <c r="H30" s="53"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G31" s="53"/>
-      <c r="H31" s="49"/>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="H31" s="53"/>
       <c r="I31" s="49"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G32" s="53"/>
-      <c r="H32" s="49"/>
+      <c r="J31" s="49"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="H32" s="53"/>
       <c r="I32" s="49"/>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G33" s="53"/>
-      <c r="H33" s="49"/>
+      <c r="J32" s="49"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H33" s="53"/>
       <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I27" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="I8" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
-    <hyperlink ref="H16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
-    <hyperlink ref="I4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
-    <hyperlink ref="H15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
-    <hyperlink ref="H26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
+    <hyperlink ref="J27" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="J8" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
+    <hyperlink ref="I16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
+    <hyperlink ref="I15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
+    <hyperlink ref="I26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94CA6C9-03C9-496D-AA81-834C29BE6EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BF5EEB-136F-46AE-95AC-FAEE8B0773E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-206" yWindow="514" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="429">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2104,7 +2104,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03.13（乌龙）</t>
+    <t>https://ymtc.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t>长江存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京、武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.14-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2209,7 +2236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2267,6 +2294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2440,7 +2473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2651,13 +2684,37 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2991,79 +3048,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:J33" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:J33" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:K33" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="A1:K33" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
     <sortCondition ref="A1:A30"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="30"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="面试" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3332,24 +3390,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.2109375" style="48" customWidth="1"/>
-    <col min="2" max="4" width="10.640625" style="57" customWidth="1"/>
-    <col min="5" max="8" width="15.640625" style="7" customWidth="1"/>
-    <col min="9" max="10" width="15.640625" style="51" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="55"/>
-    <col min="15" max="17" width="9.140625" style="7"/>
-    <col min="18" max="18" width="9.140625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="10.640625" style="57" customWidth="1"/>
+    <col min="6" max="9" width="15.640625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="15.640625" style="51" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="55"/>
+    <col min="16" max="18" width="9.140625" style="7"/>
+    <col min="19" max="19" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -3362,522 +3420,550 @@
       <c r="D1" s="54" t="s">
         <v>420</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="L1" s="54"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
-      <c r="O1" s="3"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="H2" s="56" t="s">
         <v>396</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="J2" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="K2" s="49" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="73" t="s">
         <v>410</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60" t="s">
+      <c r="C3" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="H3" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="I3" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="J3" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
       <c r="N3" s="65"/>
-      <c r="O3" s="60"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="60"/>
       <c r="Q3" s="60"/>
       <c r="R3" s="60"/>
-    </row>
-    <row r="4" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S3" s="60"/>
+    </row>
+    <row r="4" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="73" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="73" t="s">
         <v>387</v>
       </c>
       <c r="D4" s="59"/>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="G4" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="60"/>
+      <c r="I4" s="62" t="s">
         <v>383</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="63" t="s">
         <v>415</v>
       </c>
-      <c r="K4" s="65"/>
       <c r="L4" s="65"/>
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
-      <c r="O4" s="60"/>
+      <c r="O4" s="65"/>
       <c r="P4" s="60"/>
       <c r="Q4" s="60"/>
       <c r="R4" s="60"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" s="60"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="J5" s="49"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K5" s="49"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="53"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="53"/>
+      <c r="J7" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="J7" s="49"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K7" s="49"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="I8" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="J8" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="K8" s="50" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="53"/>
+      <c r="J9" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="K9" s="49" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49" t="s">
+      <c r="I10" s="53"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="I11" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="J11" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K11" s="49"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49" t="s">
+      <c r="I12" s="53"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="53"/>
+      <c r="J13" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="K13" s="49" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="I14" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="49"/>
+      <c r="K14" s="49" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="73" t="s">
         <v>410</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="60"/>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="60"/>
+      <c r="H15" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="I15" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="J15" s="63" t="s">
         <v>416</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="65"/>
       <c r="M15" s="65"/>
       <c r="N15" s="65"/>
-      <c r="O15" s="60"/>
+      <c r="O15" s="65"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="60"/>
       <c r="R15" s="60"/>
-    </row>
-    <row r="16" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S15" s="60"/>
+    </row>
+    <row r="16" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="73" t="s">
         <v>410</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60" t="s">
+      <c r="C16" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="F16" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="F16" s="60"/>
       <c r="G16" s="60"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63" t="s">
+      <c r="H16" s="60"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="65"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
-      <c r="O16" s="60"/>
+      <c r="O16" s="65"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="60"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="I17" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="J17" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="K17" s="49" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="53"/>
+      <c r="J18" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="K18" s="49" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49" t="s">
+      <c r="I19" s="53"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="53"/>
+      <c r="J20" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="J20" s="49"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="53"/>
+      <c r="J21" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K21" s="49"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="53"/>
+      <c r="J22" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="J22" s="49"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K22" s="49"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="53"/>
+      <c r="J23" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="J23" s="49"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K23" s="49"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="53"/>
+      <c r="J24" s="49" t="s">
         <v>408</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="K24" s="49" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="53"/>
+      <c r="J25" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="J25" s="49"/>
-    </row>
-    <row r="26" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="49"/>
+    </row>
+    <row r="26" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="73" t="s">
         <v>419</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="73" t="s">
+        <v>428</v>
+      </c>
       <c r="D26" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="E26" s="60"/>
+        <v>426</v>
+      </c>
+      <c r="E26" s="59"/>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="60"/>
+      <c r="I26" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="J26" s="63" t="s">
         <v>418</v>
       </c>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
+      <c r="K26" s="64"/>
       <c r="L26" s="65"/>
       <c r="M26" s="65"/>
       <c r="N26" s="65"/>
-      <c r="O26" s="60"/>
+      <c r="O26" s="65"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="60"/>
       <c r="R26" s="60"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S26" s="60"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50" t="s">
+      <c r="I27" s="53"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49" t="s">
+      <c r="I28" s="53"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49" t="s">
+      <c r="I29" s="53"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49" t="s">
+      <c r="I30" s="53"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H31" s="53"/>
-      <c r="I31" s="49"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="I31" s="53"/>
       <c r="J31" s="49"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H32" s="53"/>
-      <c r="I32" s="49"/>
+      <c r="K31" s="49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="I32" s="53"/>
       <c r="J32" s="49"/>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H33" s="53"/>
-      <c r="I33" s="49"/>
+      <c r="K32" s="49"/>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I33" s="53"/>
       <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J27" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="J8" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
-    <hyperlink ref="I3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
-    <hyperlink ref="I16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
-    <hyperlink ref="I15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
-    <hyperlink ref="I26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
+    <hyperlink ref="K27" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="K8" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
+    <hyperlink ref="J16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
+    <hyperlink ref="K4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
+    <hyperlink ref="J15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
+    <hyperlink ref="J26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BF5EEB-136F-46AE-95AC-FAEE8B0773E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E7931C-4E08-4D80-9608-58D2B9DF0EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -2667,6 +2667,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2684,9 +2687,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2694,27 +2694,6 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="43">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2982,6 +2961,27 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3058,70 +3058,70 @@
     <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="39"/>
     <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="38"/>
     <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="面试" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="面试" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3392,22 +3392,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.2109375" style="48" customWidth="1"/>
-    <col min="2" max="5" width="10.640625" style="57" customWidth="1"/>
-    <col min="6" max="9" width="15.640625" style="7" customWidth="1"/>
-    <col min="10" max="11" width="15.640625" style="51" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="55"/>
-    <col min="16" max="18" width="9.140625" style="7"/>
-    <col min="19" max="19" width="9.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="48" customWidth="1"/>
+    <col min="2" max="5" width="10.6640625" style="57" customWidth="1"/>
+    <col min="6" max="9" width="15.6640625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" style="51" customWidth="1"/>
+    <col min="12" max="15" width="9.109375" style="55"/>
+    <col min="16" max="18" width="9.109375" style="7"/>
+    <col min="19" max="19" width="9.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>359</v>
       </c>
@@ -3466,14 +3466,14 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="67" t="s">
         <v>424</v>
       </c>
       <c r="D3" s="59" t="s">
@@ -3505,14 +3505,14 @@
       <c r="R3" s="60"/>
       <c r="S3" s="60"/>
     </row>
-    <row r="4" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="67" t="s">
         <v>387</v>
       </c>
       <c r="D4" s="59"/>
@@ -3540,7 +3540,7 @@
       <c r="R4" s="60"/>
       <c r="S4" s="60"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>374</v>
       </c>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="K5" s="49"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>374</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>370</v>
       </c>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="K7" s="49"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>379</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>145</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>380</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>161</v>
       </c>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>339</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>287</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>364</v>
       </c>
@@ -3667,11 +3667,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="67" t="s">
         <v>410</v>
       </c>
       <c r="C15" s="59"/>
@@ -3698,20 +3698,20 @@
       <c r="R15" s="60"/>
       <c r="S15" s="60"/>
     </row>
-    <row r="16" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="67" t="s">
         <v>427</v>
       </c>
       <c r="F16" s="60" t="s">
@@ -3733,7 +3733,7 @@
       <c r="R16" s="60"/>
       <c r="S16" s="60"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>15</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>398</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>400</v>
       </c>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>403</v>
       </c>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>405</v>
       </c>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="K22" s="49"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>407</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K23" s="49"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>397</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>358</v>
       </c>
@@ -3843,14 +3843,14 @@
       </c>
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="67" t="s">
         <v>428</v>
       </c>
       <c r="D26" s="59" t="s">
@@ -3876,7 +3876,7 @@
       <c r="R26" s="60"/>
       <c r="S26" s="60"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>6</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>399</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>381</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>382</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>422</v>
       </c>
@@ -3944,12 +3944,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I32" s="53"/>
       <c r="J32" s="49"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33" s="53"/>
       <c r="J33" s="49"/>
       <c r="K33" s="49"/>
@@ -3980,19 +3980,19 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.2109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="70.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -4008,12 +4008,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -4021,27 +4021,27 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
@@ -4071,21 +4071,21 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="25.640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.640625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="24.640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.640625" style="24" customWidth="1"/>
-    <col min="9" max="10" width="25.640625" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="9.109375" style="4"/>
+    <col min="3" max="3" width="25.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="24" customWidth="1"/>
+    <col min="9" max="10" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>32</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>15</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>172</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>43</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>183</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>189</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>193</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>37</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>21</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>3</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>184</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>174</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>145</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>173</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>7</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>233</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>246</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>22</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>161</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>14</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>25</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>34</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>160</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>159</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>31</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>24</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>18</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>12</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>17</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>238</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>30</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>33</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>20</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>19</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>28</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>26</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>261</v>
       </c>
@@ -4899,14 +4899,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.640625" style="3" customWidth="1"/>
-    <col min="2" max="6" width="35.640625" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="35.6640625" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>285</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>289</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>282</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>325</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>287</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>324</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>288</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>283</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>286</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>327</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>328</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>304</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>284</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>326</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -5170,19 +5170,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="6.640625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="20.640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20.640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="20.640625" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="6.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="41" t="s">
         <v>97</v>
@@ -5228,7 +5228,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="41" t="s">
         <v>98</v>
@@ -5237,7 +5237,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="41" t="s">
         <v>99</v>
@@ -5246,7 +5246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="41" t="s">
         <v>100</v>
@@ -5255,7 +5255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="41" t="s">
         <v>101</v>
@@ -5264,7 +5264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="41" t="s">
         <v>102</v>
@@ -5273,7 +5273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="41" t="s">
         <v>104</v>
@@ -5282,7 +5282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="41" t="s">
         <v>105</v>
@@ -5291,7 +5291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="41" t="s">
         <v>106</v>
@@ -5300,7 +5300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="41" t="s">
         <v>107</v>
@@ -5309,7 +5309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="41" t="s">
         <v>108</v>
@@ -5318,7 +5318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="41" t="s">
         <v>109</v>
@@ -5327,7 +5327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="41" t="s">
         <v>110</v>
@@ -5336,7 +5336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="41" t="s">
         <v>111</v>
@@ -5345,7 +5345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="41" t="s">
         <v>112</v>
@@ -5354,7 +5354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="41" t="s">
         <v>113</v>
@@ -5363,7 +5363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="41" t="s">
         <v>114</v>
@@ -5372,7 +5372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="41" t="s">
         <v>115</v>
@@ -5381,7 +5381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="41" t="s">
         <v>116</v>
@@ -5390,7 +5390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="41" t="s">
         <v>117</v>
@@ -5399,7 +5399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>118</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>120</v>
@@ -5428,7 +5428,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="43" t="s">
         <v>121</v>
@@ -5437,7 +5437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="43" t="s">
         <v>31</v>
@@ -5446,7 +5446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="43" t="s">
         <v>126</v>
@@ -5455,7 +5455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
         <v>122</v>
@@ -5464,7 +5464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="43" t="s">
         <v>123</v>
@@ -5473,7 +5473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="43" t="s">
         <v>124</v>
@@ -5482,7 +5482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
         <v>125</v>
@@ -5491,7 +5491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="43" t="s">
         <v>127</v>
@@ -5500,7 +5500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="43" t="s">
         <v>128</v>
@@ -5509,7 +5509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="43" t="s">
         <v>129</v>
@@ -5518,7 +5518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="43" t="s">
         <v>130</v>
@@ -5527,7 +5527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="43" t="s">
         <v>131</v>
@@ -5536,7 +5536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="43" t="s">
         <v>132</v>
@@ -5545,7 +5545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="43" t="s">
         <v>133</v>
@@ -5554,7 +5554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="43" t="s">
         <v>134</v>
@@ -5563,7 +5563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>135</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" s="46" t="s">
         <v>136</v>
@@ -5592,7 +5592,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" s="46" t="s">
         <v>137</v>
@@ -5604,7 +5604,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" s="45" t="s">
         <v>147</v>
@@ -5622,7 +5622,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" s="45" t="s">
         <v>151</v>
@@ -5637,7 +5637,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
       <c r="B45" s="46" t="s">
         <v>138</v>
@@ -5673,13 +5673,13 @@
       <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>66</v>
       </c>
@@ -5690,8 +5690,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5701,8 +5701,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="71"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5710,8 +5710,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="72"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5719,8 +5719,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5730,8 +5730,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="71"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -5739,8 +5739,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="71"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5748,12 +5748,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E7931C-4E08-4D80-9608-58D2B9DF0EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED586A8D-A68B-4EDE-BBCD-3C705F70B67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="432">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2133,6 +2133,16 @@
   <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://f.wps.cn/ksform/w/write/SyIlaQk0/</t>
+  </si>
+  <si>
+    <t>AGLCZ11726</t>
   </si>
 </sst>
 </file>
@@ -3050,8 +3060,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:K33" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:K33" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
-    <sortCondition ref="A1:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
+    <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="40"/>
@@ -3393,21 +3403,21 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="48" customWidth="1"/>
-    <col min="2" max="5" width="10.6640625" style="57" customWidth="1"/>
-    <col min="6" max="9" width="15.6640625" style="7" customWidth="1"/>
-    <col min="10" max="11" width="15.6640625" style="51" customWidth="1"/>
-    <col min="12" max="15" width="9.109375" style="55"/>
-    <col min="16" max="18" width="9.109375" style="7"/>
-    <col min="19" max="19" width="9.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.2109375" style="48" customWidth="1"/>
+    <col min="2" max="5" width="10.640625" style="57" customWidth="1"/>
+    <col min="6" max="9" width="15.640625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="15.640625" style="51" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="55"/>
+    <col min="16" max="18" width="9.140625" style="7"/>
+    <col min="19" max="19" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -3449,7 +3459,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>359</v>
       </c>
@@ -3466,7 +3476,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="58" t="s">
         <v>393</v>
       </c>
@@ -3476,7 +3486,7 @@
       <c r="C3" s="67" t="s">
         <v>424</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="67" t="s">
         <v>425</v>
       </c>
       <c r="E3" s="59"/>
@@ -3505,7 +3515,7 @@
       <c r="R3" s="60"/>
       <c r="S3" s="60"/>
     </row>
-    <row r="4" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>23</v>
       </c>
@@ -3540,7 +3550,7 @@
       <c r="R4" s="60"/>
       <c r="S4" s="60"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>374</v>
       </c>
@@ -3553,7 +3563,7 @@
       </c>
       <c r="K5" s="49"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>374</v>
       </c>
@@ -3566,7 +3576,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>370</v>
       </c>
@@ -3576,7 +3586,7 @@
       </c>
       <c r="K7" s="49"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>379</v>
       </c>
@@ -3593,7 +3603,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>145</v>
       </c>
@@ -3608,7 +3618,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>380</v>
       </c>
@@ -3621,7 +3631,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>161</v>
       </c>
@@ -3633,62 +3643,58 @@
       </c>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K12" s="49"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49" t="s">
+      <c r="I13" s="53"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="K14" s="49"/>
+    </row>
+    <row r="15" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="49" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K15" s="49" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>365</v>
-      </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="I15" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>416</v>
-      </c>
-      <c r="K15" s="64"/>
       <c r="L15" s="65"/>
       <c r="M15" s="65"/>
       <c r="N15" s="65"/>
@@ -3698,32 +3704,24 @@
       <c r="R15" s="60"/>
       <c r="S15" s="60"/>
     </row>
-    <row r="16" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>428</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>425</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>427</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>417</v>
-      </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="K16" s="64"/>
+    <row r="16" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49" t="s">
+        <v>366</v>
+      </c>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -3733,140 +3731,161 @@
       <c r="R16" s="60"/>
       <c r="S16" s="60"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="K17" s="64"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="K18" s="64"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I19" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J19" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K19" s="49" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>398</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>400</v>
       </c>
       <c r="I20" s="53"/>
       <c r="J20" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="K20" s="49"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
-        <v>403</v>
+        <v>398</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="I21" s="53"/>
-      <c r="J21" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="K21" s="49"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J21" s="49"/>
+      <c r="K21" s="49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I22" s="53"/>
       <c r="J22" s="49" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K22" s="49"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I23" s="53"/>
       <c r="J23" s="49" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K23" s="49"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="I24" s="53"/>
       <c r="J24" s="49" t="s">
-        <v>408</v>
-      </c>
-      <c r="K24" s="49" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="K24" s="49"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="48" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="I25" s="53"/>
       <c r="J25" s="49" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
-        <v>391</v>
-      </c>
-      <c r="B26" s="67" t="s">
-        <v>419</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>428</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>426</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="J26" s="63" t="s">
-        <v>418</v>
-      </c>
-      <c r="K26" s="64"/>
+    <row r="26" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>336</v>
+      </c>
       <c r="L26" s="65"/>
       <c r="M26" s="65"/>
       <c r="N26" s="65"/>
@@ -3876,94 +3895,119 @@
       <c r="R26" s="60"/>
       <c r="S26" s="60"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="I27" s="53"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>399</v>
-      </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J27" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="K27" s="49"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J28" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="K28" s="64"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>345</v>
+        <v>423</v>
       </c>
       <c r="I29" s="53"/>
       <c r="J29" s="49"/>
       <c r="K29" s="49" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>345</v>
+        <v>6</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="I30" s="53"/>
       <c r="J30" s="49"/>
-      <c r="K30" s="49" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K30" s="50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="I31" s="53"/>
       <c r="J31" s="49"/>
       <c r="K31" s="49" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="I32" s="53"/>
       <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="I33" s="53"/>
       <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
+      <c r="K33" s="49" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K27" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="K30" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
     <hyperlink ref="K8" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
     <hyperlink ref="J3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
-    <hyperlink ref="J16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
+    <hyperlink ref="J18" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
     <hyperlink ref="K4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
-    <hyperlink ref="J15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
-    <hyperlink ref="J26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
+    <hyperlink ref="J17" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
+    <hyperlink ref="J28" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3980,19 +4024,19 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="70.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.2109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -4000,7 +4044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -4008,12 +4052,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -4021,27 +4065,27 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -4049,7 +4093,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
@@ -4071,21 +4115,21 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="9.109375" style="4"/>
-    <col min="3" max="3" width="25.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="24" customWidth="1"/>
-    <col min="9" max="10" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="25.640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="24.640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.640625" style="24" customWidth="1"/>
+    <col min="9" max="10" width="25.640625" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4117,7 +4161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
@@ -4137,7 +4181,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -4151,7 +4195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
@@ -4171,7 +4215,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>32</v>
       </c>
@@ -4194,7 +4238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>15</v>
       </c>
@@ -4202,7 +4246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>172</v>
       </c>
@@ -4228,7 +4272,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
@@ -4245,7 +4289,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
@@ -4262,7 +4306,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>43</v>
       </c>
@@ -4285,7 +4329,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>183</v>
       </c>
@@ -4308,7 +4352,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>189</v>
       </c>
@@ -4328,7 +4372,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>193</v>
       </c>
@@ -4348,7 +4392,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>37</v>
       </c>
@@ -4371,7 +4415,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>21</v>
       </c>
@@ -4391,7 +4435,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>3</v>
       </c>
@@ -4417,7 +4461,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>184</v>
       </c>
@@ -4431,7 +4475,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>174</v>
       </c>
@@ -4448,7 +4492,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>145</v>
       </c>
@@ -4459,7 +4503,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>173</v>
       </c>
@@ -4473,7 +4517,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>7</v>
       </c>
@@ -4487,7 +4531,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>233</v>
       </c>
@@ -4507,7 +4551,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
@@ -4524,7 +4568,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>246</v>
       </c>
@@ -4544,7 +4588,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>22</v>
       </c>
@@ -4561,7 +4605,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>161</v>
       </c>
@@ -4581,7 +4625,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>14</v>
       </c>
@@ -4589,7 +4633,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>25</v>
       </c>
@@ -4597,7 +4641,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
@@ -4620,7 +4664,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>34</v>
       </c>
@@ -4631,7 +4675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>160</v>
       </c>
@@ -4648,7 +4692,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>159</v>
       </c>
@@ -4659,7 +4703,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>31</v>
       </c>
@@ -4682,7 +4726,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -4702,7 +4746,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
         <v>24</v>
       </c>
@@ -4725,7 +4769,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
         <v>18</v>
       </c>
@@ -4745,7 +4789,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
         <v>12</v>
       </c>
@@ -4753,7 +4797,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
         <v>17</v>
       </c>
@@ -4761,7 +4805,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>238</v>
       </c>
@@ -4781,7 +4825,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
         <v>30</v>
       </c>
@@ -4798,7 +4842,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
         <v>33</v>
       </c>
@@ -4812,7 +4856,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
         <v>20</v>
       </c>
@@ -4826,7 +4870,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>19</v>
       </c>
@@ -4840,7 +4884,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>28</v>
       </c>
@@ -4848,7 +4892,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>26</v>
       </c>
@@ -4856,7 +4900,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>261</v>
       </c>
@@ -4899,14 +4943,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
-    <col min="2" max="6" width="35.6640625" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="7"/>
+    <col min="1" max="1" width="15.640625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="35.640625" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -4926,7 +4970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>285</v>
       </c>
@@ -4934,7 +4978,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>289</v>
       </c>
@@ -4942,7 +4986,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -4956,7 +5000,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>282</v>
       </c>
@@ -4964,7 +5008,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>325</v>
       </c>
@@ -4975,7 +5019,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>287</v>
       </c>
@@ -4986,7 +5030,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>324</v>
       </c>
@@ -4994,7 +5038,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -5002,7 +5046,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -5016,7 +5060,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>288</v>
       </c>
@@ -5027,7 +5071,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>283</v>
       </c>
@@ -5035,7 +5079,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>286</v>
       </c>
@@ -5043,7 +5087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -5054,7 +5098,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -5062,7 +5106,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>327</v>
       </c>
@@ -5070,7 +5114,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>328</v>
       </c>
@@ -5078,7 +5122,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -5086,7 +5130,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>304</v>
       </c>
@@ -5094,7 +5138,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -5108,7 +5152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>284</v>
       </c>
@@ -5116,7 +5160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>326</v>
       </c>
@@ -5130,7 +5174,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -5141,7 +5185,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="13.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -5170,19 +5214,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="16"/>
+    <col min="1" max="1" width="6.640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="6.640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="20.640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.640625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5208,7 +5252,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -5219,7 +5263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="41" t="s">
         <v>97</v>
@@ -5228,7 +5272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="40"/>
       <c r="B4" s="41" t="s">
         <v>98</v>
@@ -5237,7 +5281,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="41" t="s">
         <v>99</v>
@@ -5246,7 +5290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
       <c r="B6" s="41" t="s">
         <v>100</v>
@@ -5255,7 +5299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
       <c r="B7" s="41" t="s">
         <v>101</v>
@@ -5264,7 +5308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="41" t="s">
         <v>102</v>
@@ -5273,7 +5317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
       <c r="B9" s="41" t="s">
         <v>104</v>
@@ -5282,7 +5326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="41" t="s">
         <v>105</v>
@@ -5291,7 +5335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="41" t="s">
         <v>106</v>
@@ -5300,7 +5344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
       <c r="B12" s="41" t="s">
         <v>107</v>
@@ -5309,7 +5353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="41" t="s">
         <v>108</v>
@@ -5318,7 +5362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="40"/>
       <c r="B14" s="41" t="s">
         <v>109</v>
@@ -5327,7 +5371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
       <c r="B15" s="41" t="s">
         <v>110</v>
@@ -5336,7 +5380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="41" t="s">
         <v>111</v>
@@ -5345,7 +5389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
       <c r="B17" s="41" t="s">
         <v>112</v>
@@ -5354,7 +5398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
       <c r="B18" s="41" t="s">
         <v>113</v>
@@ -5363,7 +5407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
       <c r="B19" s="41" t="s">
         <v>114</v>
@@ -5372,7 +5416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="40"/>
       <c r="B20" s="41" t="s">
         <v>115</v>
@@ -5381,7 +5425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="40"/>
       <c r="B21" s="41" t="s">
         <v>116</v>
@@ -5390,7 +5434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
       <c r="B22" s="41" t="s">
         <v>117</v>
@@ -5399,7 +5443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="s">
         <v>118</v>
       </c>
@@ -5413,7 +5457,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>120</v>
@@ -5428,7 +5472,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="42"/>
       <c r="B25" s="43" t="s">
         <v>121</v>
@@ -5437,7 +5481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="42"/>
       <c r="B26" s="43" t="s">
         <v>31</v>
@@ -5446,7 +5490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="42"/>
       <c r="B27" s="43" t="s">
         <v>126</v>
@@ -5455,7 +5499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
         <v>122</v>
@@ -5464,7 +5508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
       <c r="B29" s="43" t="s">
         <v>123</v>
@@ -5473,7 +5517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
       <c r="B30" s="43" t="s">
         <v>124</v>
@@ -5482,7 +5526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
         <v>125</v>
@@ -5491,7 +5535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="42"/>
       <c r="B32" s="43" t="s">
         <v>127</v>
@@ -5500,7 +5544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="42"/>
       <c r="B33" s="43" t="s">
         <v>128</v>
@@ -5509,7 +5553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="42"/>
       <c r="B34" s="43" t="s">
         <v>129</v>
@@ -5518,7 +5562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="42"/>
       <c r="B35" s="43" t="s">
         <v>130</v>
@@ -5527,7 +5571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="42"/>
       <c r="B36" s="43" t="s">
         <v>131</v>
@@ -5536,7 +5580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="42"/>
       <c r="B37" s="43" t="s">
         <v>132</v>
@@ -5545,7 +5589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="42"/>
       <c r="B38" s="43" t="s">
         <v>133</v>
@@ -5554,7 +5598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="42"/>
       <c r="B39" s="43" t="s">
         <v>134</v>
@@ -5563,7 +5607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="44" t="s">
         <v>135</v>
       </c>
@@ -5577,7 +5621,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A41" s="44"/>
       <c r="B41" s="46" t="s">
         <v>136</v>
@@ -5592,7 +5636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="B42" s="46" t="s">
         <v>137</v>
@@ -5604,7 +5648,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="B43" s="45" t="s">
         <v>147</v>
@@ -5622,7 +5666,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
       <c r="B44" s="45" t="s">
         <v>151</v>
@@ -5637,7 +5681,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="46" t="s">
         <v>138</v>
@@ -5673,13 +5717,13 @@
       <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>66</v>
       </c>
@@ -5690,7 +5734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="71" t="s">
         <v>76</v>
       </c>
@@ -5701,7 +5745,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="72"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
@@ -5710,7 +5754,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="73"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
@@ -5719,7 +5763,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="72" t="s">
         <v>77</v>
       </c>
@@ -5730,7 +5774,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="72"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
@@ -5739,7 +5783,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="72"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
@@ -5748,7 +5792,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="68" t="s">
         <v>75</v>
       </c>

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED586A8D-A68B-4EDE-BBCD-3C705F70B67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1D58E-E702-4E02-AB83-AE6D97AD6E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7512" yWindow="1836" windowWidth="23040" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="437">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1815,9 +1815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京/上海</t>
-  </si>
-  <si>
     <t>高德地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1831,9 +1828,6 @@
     <t>https://careers.aliyun.com/campus/home?from=gzhWeChat&amp;lang=zh</t>
   </si>
   <si>
-    <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvpperD0fyh5bZrSMsdK3weLi68%3D</t>
-  </si>
-  <si>
     <t>后端</t>
   </si>
   <si>
@@ -1942,12 +1936,6 @@
     <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvppekyikynKCou5qJr0pkEyTv0%3D</t>
   </si>
   <si>
-    <t>北京/上海/杭州</t>
-  </si>
-  <si>
-    <t>杭州，北京</t>
-  </si>
-  <si>
     <t>6GJN60H</t>
   </si>
   <si>
@@ -2072,10 +2060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南京/深圳/成都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://zhaopin.meituan.com/web/campus?zp-from=hiring-campus-bole-elephant&amp;staffSsoId=23751624</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2104,52 +2088,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>长江存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京、武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.14-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGLCZ11726</t>
+  </si>
+  <si>
+    <t>https://f.wps.cn/ksform/w/write/SyIlaQk0/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://ymtc.zhiye.com/campus/jobs</t>
-  </si>
-  <si>
-    <t>长江存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京、武汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.14-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://f.wps.cn/ksform/w/write/SyIlaQk0/</t>
-  </si>
-  <si>
-    <t>AGLCZ11726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京、深圳、成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京、上海、杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州、北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M060003</t>
+  </si>
+  <si>
+    <t>https://careers.midea.com/schoolOut/post?tabName=internship</t>
+  </si>
+  <si>
+    <t>NTAbJBW</t>
+  </si>
+  <si>
+    <t>https://campus.ctrip.com/</t>
+  </si>
+  <si>
+    <t>上海、北京、深圳、南通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.10投递、03.17简历挂、03.17复投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2245,8 +2267,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2310,6 +2354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2483,7 +2533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2645,9 +2695,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2673,13 +2720,50 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2698,6 +2782,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3012,8 +3099,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3058,10 +3145,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:K33" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:K33" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
-    <sortCondition ref="A1:A33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:K37" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="A1:K37" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="40"/>
@@ -3400,35 +3487,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.2109375" style="48" customWidth="1"/>
-    <col min="2" max="5" width="10.640625" style="57" customWidth="1"/>
-    <col min="6" max="9" width="15.640625" style="7" customWidth="1"/>
-    <col min="10" max="11" width="15.640625" style="51" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="55"/>
-    <col min="16" max="18" width="9.140625" style="7"/>
-    <col min="19" max="19" width="9.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" style="56" customWidth="1"/>
+    <col min="6" max="9" width="15.6640625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" style="51" customWidth="1"/>
+    <col min="12" max="15" width="9.109375" style="65"/>
+    <col min="16" max="18" width="9.109375" style="7"/>
+    <col min="19" max="19" width="9.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>384</v>
+      <c r="B1" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E1" s="54" t="s">
         <v>56</v>
@@ -3443,10 +3531,10 @@
         <v>332</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K1" s="52" t="s">
         <v>331</v>
@@ -3459,384 +3547,342 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>396</v>
+        <v>357</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>392</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="B3" s="67" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>390</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>405</v>
+      </c>
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="J4" s="63"/>
+      <c r="K4" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>424</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>425</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
-        <v>412</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>413</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>395</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>394</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>409</v>
-      </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-    </row>
-    <row r="4" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="62" t="s">
-        <v>383</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="63" t="s">
-        <v>415</v>
-      </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="K5" s="49"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="K6" s="49"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="K5" s="49"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="G7" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="I7" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="J7" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="K7" s="49"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="J8" s="49" t="s">
+      <c r="I9" s="53"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="K10" s="49"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="K12" s="63"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>436</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="K15" s="70"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="K8" s="50" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="K11" s="49"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="K12" s="49"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>430</v>
-      </c>
-      <c r="K14" s="49"/>
-    </row>
-    <row r="15" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="49" t="s">
+      <c r="B16" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="K15" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-    </row>
-    <row r="16" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="53" t="s">
-        <v>365</v>
-      </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="I17" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="J17" s="63" t="s">
-        <v>416</v>
-      </c>
-      <c r="K17" s="64"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>428</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>425</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>427</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>417</v>
-      </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="K18" s="64"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="I19" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>367</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="49" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="I20" s="53"/>
       <c r="J20" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="I21" s="53"/>
+      <c r="J21" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K21" s="49"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I22" s="53"/>
       <c r="J22" s="49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K22" s="49"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>403</v>
       </c>
@@ -3846,172 +3892,208 @@
       </c>
       <c r="K23" s="49"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>405</v>
+        <v>393</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="I24" s="53"/>
       <c r="J24" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="K24" s="49"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K24" s="49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="I25" s="53"/>
       <c r="J25" s="49" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="49" t="s">
-        <v>408</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="K27" s="49"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="58" t="s">
-        <v>391</v>
-      </c>
-      <c r="B28" s="67" t="s">
-        <v>419</v>
-      </c>
-      <c r="C28" s="67" t="s">
-        <v>428</v>
-      </c>
-      <c r="D28" s="59" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="J26" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="K26" s="63"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76" t="s">
+        <v>417</v>
+      </c>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="79" t="s">
         <v>426</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="J28" s="63" t="s">
-        <v>418</v>
-      </c>
-      <c r="K28" s="64"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I28" s="53"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="I29" s="53"/>
       <c r="J29" s="49"/>
       <c r="K29" s="49" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>335</v>
+        <v>377</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="I30" s="53"/>
       <c r="J30" s="49"/>
-      <c r="K30" s="50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K30" s="49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>399</v>
+        <v>378</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I31" s="53"/>
       <c r="J31" s="49"/>
       <c r="K31" s="49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="F32" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49" t="s">
-        <v>346</v>
-      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="86" t="s">
+        <v>431</v>
+      </c>
+      <c r="J32" s="87" t="s">
+        <v>432</v>
+      </c>
+      <c r="K32" s="78"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="H33" s="76"/>
+      <c r="I33" s="86" t="s">
+        <v>433</v>
+      </c>
+      <c r="J33" s="78"/>
+      <c r="K33" s="87" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="53"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="53"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="53"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="53"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K30" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="K8" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="K28" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="K7" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
     <hyperlink ref="J3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
-    <hyperlink ref="J18" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
+    <hyperlink ref="J16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
     <hyperlink ref="K4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
-    <hyperlink ref="J17" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
-    <hyperlink ref="J28" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
+    <hyperlink ref="J15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
+    <hyperlink ref="J26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
+    <hyperlink ref="J12" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
+    <hyperlink ref="K27" r:id="rId9" xr:uid="{52B3082A-B4F2-43DA-BA65-B7CC5CFF8729}"/>
+    <hyperlink ref="J32" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
+    <hyperlink ref="K33" r:id="rId11" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4024,19 +4106,19 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.2109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="70.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -4044,7 +4126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -4052,12 +4134,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -4065,27 +4147,27 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -4093,7 +4175,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
@@ -4115,21 +4197,21 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="25.640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.640625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="24.640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.640625" style="24" customWidth="1"/>
-    <col min="9" max="10" width="25.640625" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="9.109375" style="4"/>
+    <col min="3" max="3" width="25.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="24" customWidth="1"/>
+    <col min="9" max="10" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4161,7 +4243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
@@ -4181,7 +4263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -4195,7 +4277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
@@ -4215,7 +4297,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>32</v>
       </c>
@@ -4238,7 +4320,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>15</v>
       </c>
@@ -4246,7 +4328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>172</v>
       </c>
@@ -4272,7 +4354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
@@ -4289,7 +4371,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
@@ -4306,7 +4388,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>43</v>
       </c>
@@ -4329,7 +4411,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>183</v>
       </c>
@@ -4352,7 +4434,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>189</v>
       </c>
@@ -4372,7 +4454,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>193</v>
       </c>
@@ -4392,7 +4474,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>37</v>
       </c>
@@ -4415,7 +4497,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>21</v>
       </c>
@@ -4435,7 +4517,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>3</v>
       </c>
@@ -4461,7 +4543,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>184</v>
       </c>
@@ -4475,7 +4557,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>174</v>
       </c>
@@ -4492,7 +4574,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>145</v>
       </c>
@@ -4503,7 +4585,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>173</v>
       </c>
@@ -4517,7 +4599,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>7</v>
       </c>
@@ -4531,7 +4613,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>233</v>
       </c>
@@ -4551,7 +4633,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
@@ -4568,7 +4650,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>246</v>
       </c>
@@ -4588,7 +4670,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>22</v>
       </c>
@@ -4605,7 +4687,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>161</v>
       </c>
@@ -4625,7 +4707,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>14</v>
       </c>
@@ -4633,7 +4715,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>25</v>
       </c>
@@ -4641,7 +4723,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
@@ -4664,7 +4746,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>34</v>
       </c>
@@ -4675,7 +4757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>160</v>
       </c>
@@ -4692,7 +4774,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>159</v>
       </c>
@@ -4703,7 +4785,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>31</v>
       </c>
@@ -4726,7 +4808,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -4746,7 +4828,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>24</v>
       </c>
@@ -4769,7 +4851,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>18</v>
       </c>
@@ -4789,7 +4871,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>12</v>
       </c>
@@ -4797,7 +4879,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>17</v>
       </c>
@@ -4805,7 +4887,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>238</v>
       </c>
@@ -4825,7 +4907,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>30</v>
       </c>
@@ -4842,7 +4924,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>33</v>
       </c>
@@ -4856,7 +4938,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>20</v>
       </c>
@@ -4870,7 +4952,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>19</v>
       </c>
@@ -4884,7 +4966,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>28</v>
       </c>
@@ -4892,7 +4974,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>26</v>
       </c>
@@ -4900,7 +4982,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>261</v>
       </c>
@@ -4943,14 +5025,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.640625" style="3" customWidth="1"/>
-    <col min="2" max="6" width="35.640625" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="35.6640625" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -4970,7 +5052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>285</v>
       </c>
@@ -4978,7 +5060,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>289</v>
       </c>
@@ -4986,7 +5068,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -5000,7 +5082,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>282</v>
       </c>
@@ -5008,7 +5090,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>325</v>
       </c>
@@ -5019,7 +5101,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>287</v>
       </c>
@@ -5030,7 +5112,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>324</v>
       </c>
@@ -5038,7 +5120,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -5046,7 +5128,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -5060,7 +5142,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>288</v>
       </c>
@@ -5071,7 +5153,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>283</v>
       </c>
@@ -5079,7 +5161,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>286</v>
       </c>
@@ -5087,7 +5169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -5098,7 +5180,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -5106,7 +5188,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>327</v>
       </c>
@@ -5114,7 +5196,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>328</v>
       </c>
@@ -5122,7 +5204,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -5130,7 +5212,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>304</v>
       </c>
@@ -5138,7 +5220,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -5152,7 +5234,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>284</v>
       </c>
@@ -5160,7 +5242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>326</v>
       </c>
@@ -5174,7 +5256,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -5185,7 +5267,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -5214,19 +5296,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="6.640625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="20.640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20.640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="20.640625" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="6.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5252,7 +5334,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -5263,7 +5345,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="41" t="s">
         <v>97</v>
@@ -5272,7 +5354,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="41" t="s">
         <v>98</v>
@@ -5281,7 +5363,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="41" t="s">
         <v>99</v>
@@ -5290,7 +5372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="41" t="s">
         <v>100</v>
@@ -5299,7 +5381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="41" t="s">
         <v>101</v>
@@ -5308,7 +5390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="41" t="s">
         <v>102</v>
@@ -5317,7 +5399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="41" t="s">
         <v>104</v>
@@ -5326,7 +5408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="41" t="s">
         <v>105</v>
@@ -5335,7 +5417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="41" t="s">
         <v>106</v>
@@ -5344,7 +5426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="41" t="s">
         <v>107</v>
@@ -5353,7 +5435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="41" t="s">
         <v>108</v>
@@ -5362,7 +5444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="41" t="s">
         <v>109</v>
@@ -5371,7 +5453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="41" t="s">
         <v>110</v>
@@ -5380,7 +5462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="41" t="s">
         <v>111</v>
@@ -5389,7 +5471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="41" t="s">
         <v>112</v>
@@ -5398,7 +5480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="41" t="s">
         <v>113</v>
@@ -5407,7 +5489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="41" t="s">
         <v>114</v>
@@ -5416,7 +5498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="41" t="s">
         <v>115</v>
@@ -5425,7 +5507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="41" t="s">
         <v>116</v>
@@ -5434,7 +5516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="41" t="s">
         <v>117</v>
@@ -5443,7 +5525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>118</v>
       </c>
@@ -5457,7 +5539,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>120</v>
@@ -5472,7 +5554,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="43" t="s">
         <v>121</v>
@@ -5481,7 +5563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="43" t="s">
         <v>31</v>
@@ -5490,7 +5572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="43" t="s">
         <v>126</v>
@@ -5499,7 +5581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
         <v>122</v>
@@ -5508,7 +5590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="43" t="s">
         <v>123</v>
@@ -5517,7 +5599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="43" t="s">
         <v>124</v>
@@ -5526,7 +5608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
         <v>125</v>
@@ -5535,7 +5617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="43" t="s">
         <v>127</v>
@@ -5544,7 +5626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="43" t="s">
         <v>128</v>
@@ -5553,7 +5635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="43" t="s">
         <v>129</v>
@@ -5562,7 +5644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="43" t="s">
         <v>130</v>
@@ -5571,7 +5653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="43" t="s">
         <v>131</v>
@@ -5580,7 +5662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="43" t="s">
         <v>132</v>
@@ -5589,7 +5671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="43" t="s">
         <v>133</v>
@@ -5598,7 +5680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="43" t="s">
         <v>134</v>
@@ -5607,7 +5689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>135</v>
       </c>
@@ -5621,7 +5703,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" s="46" t="s">
         <v>136</v>
@@ -5636,7 +5718,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" s="46" t="s">
         <v>137</v>
@@ -5648,7 +5730,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" s="45" t="s">
         <v>147</v>
@@ -5666,7 +5748,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" s="45" t="s">
         <v>151</v>
@@ -5681,7 +5763,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
       <c r="B45" s="46" t="s">
         <v>138</v>
@@ -5717,13 +5799,13 @@
       <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>66</v>
       </c>
@@ -5734,8 +5816,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5745,8 +5827,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="72"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="84"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5754,8 +5836,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="73"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="85"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5763,8 +5845,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5774,8 +5856,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="72"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -5783,8 +5865,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="72"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5792,12 +5874,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="68" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1D58E-E702-4E02-AB83-AE6D97AD6E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B63DF4-7513-42D9-B62D-514CA687437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7512" yWindow="1836" windowWidth="23040" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="442">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1989,181 +1989,202 @@
     <t>DSECVCRH</t>
   </si>
   <si>
+    <t>X9217808</t>
+  </si>
+  <si>
+    <t>每人可投递两个志愿</t>
+  </si>
+  <si>
+    <t>自动驾驶遥遥领先企业，薪资很高，实习也是</t>
+  </si>
+  <si>
+    <t>腾讯 WXG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CDG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 抖音剪映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CSIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw</t>
+  </si>
+  <si>
+    <t>腾讯 IEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ</t>
+  </si>
+  <si>
+    <t>腾讯 PCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ</t>
+  </si>
+  <si>
+    <t>腾讯 TEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/48Mc43QSiSNUBsvylhRazg</t>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/university/oppo/campus/post?shareId=9501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhaopin.meituan.com/web/campus?zp-from=hiring-campus-bole-elephant&amp;staffSsoId=23751624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr-campus.vivo.com/campus/jobs?memory=%7B%7D&amp;silence=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.kuaishou.cn/recruit/campus/e/h5/#/campus/jobs?code=campusitAjZhOjZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/campus_apply/shopee/2962?recommendCode=DSECVCRH&amp;hash=%23%2Fjobs#/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.14-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGLCZ11726</t>
+  </si>
+  <si>
+    <t>https://f.wps.cn/ksform/w/write/SyIlaQk0/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京、深圳、成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京、上海、杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州、北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.midea.com/schoolOut/post?tabName=internship</t>
+  </si>
+  <si>
+    <t>https://campus.ctrip.com/</t>
+  </si>
+  <si>
+    <t>上海、北京、深圳、南通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.10投递、03.17简历挂、03.17复投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业帮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://careers.midea.com/ </t>
+  </si>
+  <si>
+    <t>M060103</t>
+  </si>
+  <si>
+    <t>03.15笔试、复筛不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OPPO</t>
-  </si>
-  <si>
-    <t>X9217808</t>
-  </si>
-  <si>
-    <t>每人可投递两个志愿</t>
-  </si>
-  <si>
-    <t>自动驾驶遥遥领先企业，薪资很高，实习也是</t>
-  </si>
-  <si>
-    <t>腾讯 WXG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CDG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节 抖音剪映</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CSIG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw</t>
-  </si>
-  <si>
-    <t>腾讯 IEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ</t>
-  </si>
-  <si>
-    <t>腾讯 PCG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ</t>
-  </si>
-  <si>
-    <t>腾讯 TEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/48Mc43QSiSNUBsvylhRazg</t>
-  </si>
-  <si>
-    <t>https://careers.oppo.com/university/oppo/campus/post?shareId=9501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhaopin.meituan.com/web/campus?zp-from=hiring-campus-bole-elephant&amp;staffSsoId=23751624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hr-campus.vivo.com/campus/jobs?memory=%7B%7D&amp;silence=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.kuaishou.cn/recruit/campus/e/h5/#/campus/jobs?code=campusitAjZhOjZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/m/campus_apply/shopee/2962?recommendCode=DSECVCRH&amp;hash=%23%2Fjobs#/jobs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长江存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京、武汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.14-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGLCZ11726</t>
-  </si>
-  <si>
-    <t>https://f.wps.cn/ksform/w/write/SyIlaQk0/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ymtc.zhiye.com/campus/jobs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京、深圳、成都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京、上海、杭州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州、北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M060003</t>
-  </si>
-  <si>
-    <t>https://careers.midea.com/schoolOut/post?tabName=internship</t>
-  </si>
-  <si>
-    <t>NTAbJBW</t>
-  </si>
-  <si>
-    <t>https://campus.ctrip.com/</t>
-  </si>
-  <si>
-    <t>上海、北京、深圳、南通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.10投递、03.17简历挂、03.17复投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉、佛山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTAW3Fx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/campus-recruitment/zuoyebang/150514?recommendCode=DSZkMCxf&amp;hash=%23%2Fjobs#/jobs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2171,7 +2192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,15 +2289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
@@ -2290,7 +2302,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2353,13 +2365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2533,7 +2539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2705,92 +2711,89 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="43">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3084,27 +3087,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <charset val="134"/>
       </font>
     </dxf>
@@ -3145,80 +3127,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:K37" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:K37" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
-    <sortCondition ref="A1:A31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:K36" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="A1:K36" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+    <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="面试" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="面试" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3487,25 +3469,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" style="56" customWidth="1"/>
-    <col min="6" max="9" width="15.6640625" style="7" customWidth="1"/>
-    <col min="10" max="11" width="15.6640625" style="51" customWidth="1"/>
-    <col min="12" max="15" width="9.109375" style="65"/>
-    <col min="16" max="18" width="9.109375" style="7"/>
-    <col min="19" max="19" width="9.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.2109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="10.640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.640625" style="56" customWidth="1"/>
+    <col min="6" max="9" width="15.640625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="15.640625" style="51" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="59"/>
+    <col min="16" max="18" width="9.140625" style="7"/>
+    <col min="19" max="19" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -3516,7 +3498,7 @@
         <v>381</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E1" s="54" t="s">
         <v>56</v>
@@ -3547,12 +3529,13 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>357</v>
       </c>
+      <c r="B2" s="54"/>
       <c r="H2" s="55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I2" s="53" t="s">
         <v>360</v>
@@ -3564,70 +3547,71 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>390</v>
+      </c>
+      <c r="I3" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>406</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>418</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>419</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>391</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>390</v>
-      </c>
-      <c r="J3" s="62" t="s">
-        <v>405</v>
-      </c>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J3" s="73" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="77" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="G4" s="59" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="G4" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71" t="s">
         <v>379</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="62" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J4" s="72"/>
+      <c r="K4" s="73" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>372</v>
       </c>
+      <c r="B5" s="54"/>
       <c r="G5" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="49" t="s">
@@ -3635,22 +3619,24 @@
       </c>
       <c r="K5" s="49"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>368</v>
       </c>
+      <c r="B6" s="54"/>
       <c r="I6" s="53"/>
       <c r="J6" s="49" t="s">
         <v>350</v>
       </c>
       <c r="K6" s="49"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>375</v>
       </c>
+      <c r="B7" s="54"/>
       <c r="G7" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I7" s="53" t="s">
         <v>374</v>
@@ -3662,10 +3648,11 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>145</v>
       </c>
+      <c r="B8" s="54"/>
       <c r="H8" s="7" t="s">
         <v>369</v>
       </c>
@@ -3677,10 +3664,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>376</v>
       </c>
+      <c r="B9" s="54"/>
       <c r="G9" s="7" t="s">
         <v>1</v>
       </c>
@@ -3690,10 +3678,11 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>161</v>
       </c>
+      <c r="B10" s="54"/>
       <c r="I10" s="53" t="s">
         <v>385</v>
       </c>
@@ -3702,41 +3691,43 @@
       </c>
       <c r="K10" s="49"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>338</v>
       </c>
+      <c r="B11" s="54"/>
       <c r="I11" s="53"/>
       <c r="J11" s="49"/>
       <c r="K11" s="49" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
-        <v>423</v>
-      </c>
-      <c r="B12" s="71" t="s">
         <v>420</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="61" t="s">
-        <v>424</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>425</v>
-      </c>
-      <c r="K12" s="63"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="K12" s="72"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
         <v>287</v>
       </c>
+      <c r="B13" s="54"/>
       <c r="I13" s="53"/>
       <c r="J13" s="49" t="s">
         <v>347</v>
@@ -3745,10 +3736,11 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>362</v>
       </c>
+      <c r="B14" s="54"/>
       <c r="I14" s="53" t="s">
         <v>363</v>
       </c>
@@ -3757,60 +3749,61 @@
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="72" t="s">
-        <v>436</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67" t="s">
+      <c r="B15" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="I15" s="68" t="s">
+      <c r="I15" s="71" t="s">
         <v>386</v>
       </c>
-      <c r="J15" s="69" t="s">
-        <v>411</v>
-      </c>
-      <c r="K15" s="70"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J15" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="K15" s="72"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>406</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>422</v>
-      </c>
-      <c r="D16" s="64" t="s">
+      <c r="B16" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="58" t="s">
         <v>419</v>
       </c>
-      <c r="E16" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>412</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62" t="s">
-        <v>409</v>
-      </c>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="73" t="s">
+        <v>408</v>
+      </c>
+      <c r="K16" s="72"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="54"/>
       <c r="H17" s="7" t="s">
         <v>367</v>
       </c>
@@ -3824,10 +3817,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="54"/>
       <c r="H18" s="7" t="s">
         <v>337</v>
       </c>
@@ -3839,10 +3833,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
-        <v>394</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B19" s="54"/>
       <c r="G19" s="7" t="s">
         <v>270</v>
       </c>
@@ -3852,234 +3847,255 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
-        <v>396</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="B20" s="54"/>
       <c r="I20" s="53"/>
       <c r="J20" s="49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
-        <v>399</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B21" s="54"/>
       <c r="I21" s="53"/>
       <c r="J21" s="49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
-        <v>401</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="B22" s="54"/>
       <c r="I22" s="53"/>
       <c r="J22" s="49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K22" s="49"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
-        <v>403</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B23" s="54"/>
       <c r="I23" s="53"/>
       <c r="J23" s="49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K23" s="49"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
-        <v>393</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B24" s="54"/>
       <c r="F24" s="7" t="s">
         <v>340</v>
       </c>
       <c r="I24" s="53"/>
       <c r="J24" s="49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K24" s="49" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="48" t="s">
         <v>356</v>
       </c>
+      <c r="B25" s="54"/>
       <c r="I25" s="53"/>
       <c r="J25" s="49" t="s">
         <v>355</v>
       </c>
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="B26" s="71" t="s">
-        <v>414</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>422</v>
+      <c r="B26" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>419</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="J26" s="62" t="s">
-        <v>413</v>
-      </c>
-      <c r="K26" s="63"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
-        <v>416</v>
-      </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76" t="s">
-        <v>417</v>
-      </c>
-      <c r="H27" s="76"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="79" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="73" t="s">
+        <v>412</v>
+      </c>
+      <c r="K26" s="72"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="H27" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>335</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B28" s="54"/>
       <c r="I28" s="53"/>
       <c r="J28" s="49"/>
-      <c r="K28" s="50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
-        <v>395</v>
+        <v>377</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="F29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="I29" s="53"/>
       <c r="J29" s="49"/>
       <c r="K29" s="49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
-        <v>377</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B30" s="54"/>
       <c r="F30" s="7" t="s">
         <v>342</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>343</v>
+        <v>1</v>
       </c>
       <c r="I30" s="53"/>
       <c r="J30" s="49"/>
       <c r="K30" s="49" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="73" t="s">
-        <v>430</v>
-      </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="86" t="s">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.45">
+      <c r="A31" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70" t="s">
+        <v>437</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>436</v>
+      </c>
+      <c r="H31" s="70"/>
+      <c r="I31" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="J31" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="K31" s="72" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.45">
+      <c r="A32" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="G32" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="H32" s="70"/>
+      <c r="I32" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="J32" s="72"/>
+      <c r="K32" s="75" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="J32" s="87" t="s">
-        <v>432</v>
-      </c>
-      <c r="K32" s="78"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="88" t="s">
-        <v>435</v>
-      </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="86" t="s">
-        <v>433</v>
-      </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="87" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="78"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="73" t="s">
+        <v>441</v>
+      </c>
+      <c r="K33" s="72"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="54"/>
       <c r="I34" s="53"/>
       <c r="J34" s="49"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="54"/>
       <c r="I35" s="53"/>
       <c r="J35" s="49"/>
       <c r="K35" s="49"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="54"/>
       <c r="I36" s="53"/>
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="53"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K28" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="K27" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
     <hyperlink ref="K7" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
     <hyperlink ref="J3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
     <hyperlink ref="J16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
@@ -4087,9 +4103,9 @@
     <hyperlink ref="J15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
     <hyperlink ref="J26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
     <hyperlink ref="J12" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
-    <hyperlink ref="K27" r:id="rId9" xr:uid="{52B3082A-B4F2-43DA-BA65-B7CC5CFF8729}"/>
-    <hyperlink ref="J32" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
-    <hyperlink ref="K33" r:id="rId11" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
+    <hyperlink ref="J31" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
+    <hyperlink ref="K32" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
+    <hyperlink ref="J33" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4106,19 +4122,19 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="70.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.2109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -4126,7 +4142,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -4134,12 +4150,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -4147,27 +4163,27 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -4175,7 +4191,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
@@ -4197,21 +4213,21 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="9.109375" style="4"/>
-    <col min="3" max="3" width="25.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="24" customWidth="1"/>
-    <col min="9" max="10" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="25.640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="24.640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.640625" style="24" customWidth="1"/>
+    <col min="9" max="10" width="25.640625" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4243,7 +4259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
@@ -4263,7 +4279,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -4277,7 +4293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
@@ -4297,7 +4313,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>32</v>
       </c>
@@ -4320,7 +4336,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>15</v>
       </c>
@@ -4328,7 +4344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>172</v>
       </c>
@@ -4354,7 +4370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
@@ -4371,7 +4387,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
@@ -4388,7 +4404,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>43</v>
       </c>
@@ -4411,7 +4427,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>183</v>
       </c>
@@ -4434,7 +4450,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>189</v>
       </c>
@@ -4454,7 +4470,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>193</v>
       </c>
@@ -4474,7 +4490,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>37</v>
       </c>
@@ -4497,7 +4513,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>21</v>
       </c>
@@ -4517,7 +4533,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>3</v>
       </c>
@@ -4543,7 +4559,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>184</v>
       </c>
@@ -4557,7 +4573,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>174</v>
       </c>
@@ -4574,7 +4590,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>145</v>
       </c>
@@ -4585,7 +4601,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>173</v>
       </c>
@@ -4599,7 +4615,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>7</v>
       </c>
@@ -4613,7 +4629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>233</v>
       </c>
@@ -4633,7 +4649,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
@@ -4650,7 +4666,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>246</v>
       </c>
@@ -4670,7 +4686,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>22</v>
       </c>
@@ -4687,7 +4703,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>161</v>
       </c>
@@ -4707,7 +4723,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>14</v>
       </c>
@@ -4715,7 +4731,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>25</v>
       </c>
@@ -4723,7 +4739,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
@@ -4746,7 +4762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>34</v>
       </c>
@@ -4757,7 +4773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>160</v>
       </c>
@@ -4774,7 +4790,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>159</v>
       </c>
@@ -4785,7 +4801,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>31</v>
       </c>
@@ -4808,7 +4824,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -4828,7 +4844,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
         <v>24</v>
       </c>
@@ -4851,7 +4867,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
         <v>18</v>
       </c>
@@ -4871,7 +4887,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
         <v>12</v>
       </c>
@@ -4879,7 +4895,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
         <v>17</v>
       </c>
@@ -4887,7 +4903,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>238</v>
       </c>
@@ -4907,7 +4923,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
         <v>30</v>
       </c>
@@ -4924,7 +4940,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
         <v>33</v>
       </c>
@@ -4938,7 +4954,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
         <v>20</v>
       </c>
@@ -4952,7 +4968,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>19</v>
       </c>
@@ -4966,7 +4982,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>28</v>
       </c>
@@ -4974,7 +4990,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>26</v>
       </c>
@@ -4982,7 +4998,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>261</v>
       </c>
@@ -5025,14 +5041,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
-    <col min="2" max="6" width="35.6640625" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="7"/>
+    <col min="1" max="1" width="15.640625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="35.640625" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -5052,7 +5068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>285</v>
       </c>
@@ -5060,7 +5076,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>289</v>
       </c>
@@ -5068,7 +5084,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -5082,7 +5098,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>282</v>
       </c>
@@ -5090,7 +5106,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>325</v>
       </c>
@@ -5101,7 +5117,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>287</v>
       </c>
@@ -5112,7 +5128,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>324</v>
       </c>
@@ -5120,7 +5136,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -5128,7 +5144,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -5142,7 +5158,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>288</v>
       </c>
@@ -5153,7 +5169,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>283</v>
       </c>
@@ -5161,7 +5177,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>286</v>
       </c>
@@ -5169,7 +5185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -5180,7 +5196,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -5188,7 +5204,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>327</v>
       </c>
@@ -5196,7 +5212,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>328</v>
       </c>
@@ -5204,7 +5220,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -5212,7 +5228,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>304</v>
       </c>
@@ -5220,7 +5236,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -5234,7 +5250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>284</v>
       </c>
@@ -5242,7 +5258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>326</v>
       </c>
@@ -5256,7 +5272,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -5267,7 +5283,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="13.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -5296,19 +5312,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="16"/>
+    <col min="1" max="1" width="6.640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="6.640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="20.640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.640625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5334,7 +5350,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -5345,7 +5361,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="41" t="s">
         <v>97</v>
@@ -5354,7 +5370,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="40"/>
       <c r="B4" s="41" t="s">
         <v>98</v>
@@ -5363,7 +5379,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="41" t="s">
         <v>99</v>
@@ -5372,7 +5388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
       <c r="B6" s="41" t="s">
         <v>100</v>
@@ -5381,7 +5397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
       <c r="B7" s="41" t="s">
         <v>101</v>
@@ -5390,7 +5406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="41" t="s">
         <v>102</v>
@@ -5399,7 +5415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
       <c r="B9" s="41" t="s">
         <v>104</v>
@@ -5408,7 +5424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="41" t="s">
         <v>105</v>
@@ -5417,7 +5433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="41" t="s">
         <v>106</v>
@@ -5426,7 +5442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
       <c r="B12" s="41" t="s">
         <v>107</v>
@@ -5435,7 +5451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="41" t="s">
         <v>108</v>
@@ -5444,7 +5460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="40"/>
       <c r="B14" s="41" t="s">
         <v>109</v>
@@ -5453,7 +5469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
       <c r="B15" s="41" t="s">
         <v>110</v>
@@ -5462,7 +5478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="41" t="s">
         <v>111</v>
@@ -5471,7 +5487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
       <c r="B17" s="41" t="s">
         <v>112</v>
@@ -5480,7 +5496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
       <c r="B18" s="41" t="s">
         <v>113</v>
@@ -5489,7 +5505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
       <c r="B19" s="41" t="s">
         <v>114</v>
@@ -5498,7 +5514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="40"/>
       <c r="B20" s="41" t="s">
         <v>115</v>
@@ -5507,7 +5523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="40"/>
       <c r="B21" s="41" t="s">
         <v>116</v>
@@ -5516,7 +5532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
       <c r="B22" s="41" t="s">
         <v>117</v>
@@ -5525,7 +5541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="s">
         <v>118</v>
       </c>
@@ -5539,7 +5555,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>120</v>
@@ -5554,7 +5570,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="42"/>
       <c r="B25" s="43" t="s">
         <v>121</v>
@@ -5563,7 +5579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="42"/>
       <c r="B26" s="43" t="s">
         <v>31</v>
@@ -5572,7 +5588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="42"/>
       <c r="B27" s="43" t="s">
         <v>126</v>
@@ -5581,7 +5597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
         <v>122</v>
@@ -5590,7 +5606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
       <c r="B29" s="43" t="s">
         <v>123</v>
@@ -5599,7 +5615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
       <c r="B30" s="43" t="s">
         <v>124</v>
@@ -5608,7 +5624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
         <v>125</v>
@@ -5617,7 +5633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="42"/>
       <c r="B32" s="43" t="s">
         <v>127</v>
@@ -5626,7 +5642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="42"/>
       <c r="B33" s="43" t="s">
         <v>128</v>
@@ -5635,7 +5651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="42"/>
       <c r="B34" s="43" t="s">
         <v>129</v>
@@ -5644,7 +5660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="42"/>
       <c r="B35" s="43" t="s">
         <v>130</v>
@@ -5653,7 +5669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="42"/>
       <c r="B36" s="43" t="s">
         <v>131</v>
@@ -5662,7 +5678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="42"/>
       <c r="B37" s="43" t="s">
         <v>132</v>
@@ -5671,7 +5687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="42"/>
       <c r="B38" s="43" t="s">
         <v>133</v>
@@ -5680,7 +5696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="42"/>
       <c r="B39" s="43" t="s">
         <v>134</v>
@@ -5689,7 +5705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="44" t="s">
         <v>135</v>
       </c>
@@ -5703,7 +5719,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A41" s="44"/>
       <c r="B41" s="46" t="s">
         <v>136</v>
@@ -5718,7 +5734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="B42" s="46" t="s">
         <v>137</v>
@@ -5730,7 +5746,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="B43" s="45" t="s">
         <v>147</v>
@@ -5748,7 +5764,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
       <c r="B44" s="45" t="s">
         <v>151</v>
@@ -5763,7 +5779,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="46" t="s">
         <v>138</v>
@@ -5799,13 +5815,13 @@
       <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>66</v>
       </c>
@@ -5816,8 +5832,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5827,8 +5843,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="64"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5836,8 +5852,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="65"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5845,8 +5861,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="64" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5856,8 +5872,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="64"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -5865,8 +5881,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="64"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5874,12 +5890,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B63DF4-7513-42D9-B62D-514CA687437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D31F9A-B3D1-4375-BEBE-F749FF67EE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="443">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2097,10 +2097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03.14-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2185,6 +2181,14 @@
   </si>
   <si>
     <t>https://app.mokahr.com/m/campus-recruitment/zuoyebang/150514?recommendCode=DSZkMCxf&amp;hash=%23%2Fjobs#/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2539,7 +2543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2714,45 +2718,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2760,12 +2733,24 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2773,27 +2758,6 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="43">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3087,6 +3051,27 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <charset val="134"/>
       </font>
     </dxf>
@@ -3134,73 +3119,73 @@
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="面试" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="面试" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3471,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3548,60 +3533,56 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
-        <v>435</v>
-      </c>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="61" t="s">
         <v>415</v>
       </c>
-      <c r="D3" s="67" t="s">
-        <v>434</v>
-      </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70" t="s">
+      <c r="D3" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G3" s="70" t="s">
-        <v>423</v>
-      </c>
-      <c r="H3" s="80" t="s">
+      <c r="G3" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="K3" s="72"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="66" t="s">
         <v>382</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="53" t="s">
         <v>379</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="62" t="s">
         <v>409</v>
       </c>
     </row>
@@ -3611,7 +3592,7 @@
       </c>
       <c r="B5" s="54"/>
       <c r="G5" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="49" t="s">
@@ -3636,7 +3617,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="G7" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I7" s="53" t="s">
         <v>374</v>
@@ -3704,24 +3685,18 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>417</v>
+      </c>
+      <c r="I12" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="B12" s="77" t="s">
-        <v>417</v>
-      </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71" t="s">
+      <c r="J12" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="J12" s="73" t="s">
-        <v>422</v>
-      </c>
-      <c r="K12" s="72"/>
+      <c r="K12" s="49"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
@@ -3754,50 +3729,43 @@
         <v>43</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70" t="s">
+        <v>429</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="J15" s="73" t="s">
+      <c r="J15" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="K15" s="72"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="66" t="s">
         <v>405</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>416</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>418</v>
-      </c>
-      <c r="F16" s="70" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="73" t="s">
+      <c r="I16" s="53"/>
+      <c r="J16" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="K16" s="72"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
@@ -3922,26 +3890,22 @@
       <c r="A26" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="66" t="s">
         <v>413</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="J26" s="73" t="s">
+      <c r="J26" s="62" t="s">
         <v>412</v>
       </c>
-      <c r="K26" s="72"/>
+      <c r="K26" s="49"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
@@ -4004,72 +3968,67 @@
     </row>
     <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I31" s="63" t="s">
+        <v>432</v>
+      </c>
+      <c r="J31" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="B31" s="77" t="s">
-        <v>439</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70" t="s">
-        <v>437</v>
-      </c>
-      <c r="G31" s="70" t="s">
-        <v>436</v>
-      </c>
-      <c r="H31" s="70"/>
-      <c r="I31" s="74" t="s">
-        <v>433</v>
-      </c>
-      <c r="J31" s="75" t="s">
-        <v>427</v>
-      </c>
-      <c r="K31" s="72" t="s">
-        <v>432</v>
+      <c r="K31" s="49" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.45">
       <c r="A32" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="66" t="s">
+        <v>438</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70" t="s">
+      <c r="G32" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="I32" s="63" t="s">
+        <v>437</v>
+      </c>
+      <c r="J32" s="49"/>
+      <c r="K32" s="64" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="79" t="s">
-        <v>429</v>
-      </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="74" t="s">
-        <v>438</v>
-      </c>
-      <c r="J32" s="72"/>
-      <c r="K32" s="75" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="68" t="s">
-        <v>431</v>
-      </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="73" t="s">
-        <v>441</v>
-      </c>
-      <c r="K33" s="72"/>
+      <c r="K33" s="49"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="48" t="s">
@@ -5833,7 +5792,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="71" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5844,7 +5803,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5853,7 +5812,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="65"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5862,7 +5821,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="72" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5873,7 +5832,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -5882,7 +5841,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="64"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5891,11 +5850,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D31F9A-B3D1-4375-BEBE-F749FF67EE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116F63A-CE88-4C2A-B0E7-23DF081C3E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="445">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2189,6 +2189,14 @@
   </si>
   <si>
     <t>03.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.14-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2757,7 +2765,28 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3112,80 +3141,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:K36" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:K36" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L36" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:L36" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L30">
     <sortCondition ref="A1:A30"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="面试" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="30"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{88C039C7-306D-49CB-B3C8-2C5122F7EACD}" name="AI面试" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="面试" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3454,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3472,7 +3502,7 @@
     <col min="19" max="19" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>281</v>
       </c>
@@ -3486,53 +3516,59 @@
         <v>414</v>
       </c>
       <c r="E1" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="M1" s="54"/>
       <c r="N1" s="54"/>
       <c r="O1" s="54"/>
-      <c r="P1" s="3"/>
+      <c r="P1" s="54"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="54"/>
-      <c r="H2" s="55" t="s">
+      <c r="F2" s="56"/>
+      <c r="I2" s="55" t="s">
         <v>391</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="K2" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="L2" s="49" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P2" s="59"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
         <v>434</v>
       </c>
@@ -3545,24 +3581,28 @@
       <c r="D3" s="61" t="s">
         <v>433</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="I3" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="J3" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="K3" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L3" s="49"/>
+      <c r="P3" s="59"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
@@ -3572,177 +3612,213 @@
       <c r="C4" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="J4" s="53" t="s">
         <v>379</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="49"/>
+      <c r="L4" s="62" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P4" s="59"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>372</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="56"/>
+      <c r="H5" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="53"/>
+      <c r="K5" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="K5" s="49"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L5" s="49"/>
+      <c r="P5" s="59"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>368</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="49" t="s">
+      <c r="F6" s="56"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="K6" s="49"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L6" s="49"/>
+      <c r="P6" s="59"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>375</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="56"/>
+      <c r="H7" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="J7" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="K7" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="L7" s="50" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P7" s="59"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="54"/>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="56"/>
+      <c r="I8" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="L8" s="49" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P8" s="59"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>376</v>
       </c>
       <c r="B9" s="54"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="56"/>
+      <c r="H9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49" t="s">
+      <c r="J9" s="53"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P9" s="59"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>161</v>
       </c>
       <c r="B10" s="54"/>
-      <c r="I10" s="53" t="s">
+      <c r="F10" s="56"/>
+      <c r="J10" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="K10" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="K10" s="49"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L10" s="49"/>
+      <c r="P10" s="59"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>338</v>
       </c>
       <c r="B11" s="54"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49" t="s">
+      <c r="F11" s="56"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P11" s="59"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
         <v>419</v>
       </c>
       <c r="B12" s="66" t="s">
         <v>417</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="F12" s="56"/>
+      <c r="J12" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="K12" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="K12" s="49"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L12" s="49"/>
+      <c r="P12" s="59"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
         <v>287</v>
       </c>
       <c r="B13" s="54"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="49" t="s">
+      <c r="F13" s="56"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="L13" s="49" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P13" s="59"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>362</v>
       </c>
       <c r="B14" s="54"/>
-      <c r="I14" s="53" t="s">
+      <c r="F14" s="56"/>
+      <c r="J14" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="49"/>
+      <c r="L14" s="49" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P14" s="59"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>429</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="F15" s="56"/>
+      <c r="I15" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="J15" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="K15" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="K15" s="49"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L15" s="49"/>
+      <c r="P15" s="59"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="57" t="s">
         <v>353</v>
       </c>
@@ -3756,137 +3832,169 @@
         <v>416</v>
       </c>
       <c r="E16" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="F16" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="62" t="s">
+      <c r="J16" s="53"/>
+      <c r="K16" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="K16" s="49"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="49"/>
+      <c r="P16" s="59"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="54"/>
-      <c r="H17" s="7" t="s">
+      <c r="F17" s="56"/>
+      <c r="I17" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="J17" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="K17" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="L17" s="49" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="P17" s="59"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="54"/>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="56"/>
+      <c r="I18" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="53"/>
+      <c r="K18" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="L18" s="49" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="P18" s="59"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
         <v>393</v>
       </c>
       <c r="B19" s="54"/>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="56"/>
+      <c r="H19" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49" t="s">
+      <c r="J19" s="53"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="P19" s="59"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
         <v>395</v>
       </c>
       <c r="B20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="49" t="s">
+      <c r="F20" s="56"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="K20" s="49"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="49"/>
+      <c r="P20" s="59"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>398</v>
       </c>
       <c r="B21" s="54"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="49" t="s">
+      <c r="F21" s="56"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="K21" s="49"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="49"/>
+      <c r="P21" s="59"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
         <v>400</v>
       </c>
       <c r="B22" s="54"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="49" t="s">
+      <c r="F22" s="56"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="K22" s="49"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="49"/>
+      <c r="P22" s="59"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
         <v>402</v>
       </c>
       <c r="B23" s="54"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="49" t="s">
+      <c r="F23" s="56"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="K23" s="49"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="49"/>
+      <c r="P23" s="59"/>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
         <v>392</v>
       </c>
       <c r="B24" s="54"/>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="56"/>
+      <c r="G24" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="53"/>
+      <c r="K24" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="L24" s="49" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="P24" s="59"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="48" t="s">
         <v>356</v>
       </c>
       <c r="B25" s="54"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="49" t="s">
+      <c r="F25" s="56"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="K25" s="49"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="49"/>
+      <c r="P25" s="59"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="57" t="s">
         <v>387</v>
       </c>
@@ -3899,74 +4007,90 @@
       <c r="D26" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="I26" s="53" t="s">
+      <c r="E26" s="58"/>
+      <c r="F26" s="56"/>
+      <c r="J26" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="J26" s="62" t="s">
+      <c r="K26" s="62" t="s">
         <v>412</v>
       </c>
-      <c r="K26" s="49"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" s="49"/>
+      <c r="P26" s="59"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="54"/>
-      <c r="H27" s="7" t="s">
+      <c r="F27" s="56"/>
+      <c r="I27" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50" t="s">
+      <c r="J27" s="53"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="P27" s="59"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
         <v>394</v>
       </c>
       <c r="B28" s="54"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49" t="s">
+      <c r="F28" s="56"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="P28" s="59"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
         <v>377</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="56"/>
+      <c r="G29" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49" t="s">
+      <c r="J29" s="53"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="P29" s="59"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
         <v>378</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="56"/>
+      <c r="G30" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49" t="s">
+      <c r="J30" s="53"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.45">
+      <c r="P30" s="59"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" s="57" t="s">
         <v>425</v>
       </c>
@@ -3979,23 +4103,29 @@
       <c r="D31" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="F31" s="56"/>
+      <c r="G31" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="I31" s="63" t="s">
+      <c r="J31" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="J31" s="64" t="s">
+      <c r="K31" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="K31" s="49" t="s">
+      <c r="L31" s="49" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.45">
+      <c r="P31" s="59"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.45">
       <c r="A32" s="57" t="s">
         <v>12</v>
       </c>
@@ -4005,66 +4135,81 @@
       <c r="C32" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="56"/>
+      <c r="G32" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="H32" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="I32" s="63" t="s">
+      <c r="J32" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="64" t="s">
+      <c r="K32" s="49"/>
+      <c r="L32" s="64" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="P32" s="59"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="48" t="s">
         <v>430</v>
       </c>
       <c r="B33" s="54"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="62" t="s">
+      <c r="F33" s="56"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="K33" s="49"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33" s="49"/>
+      <c r="P33" s="59"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="54"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="49"/>
+      <c r="F34" s="56"/>
+      <c r="J34" s="53"/>
       <c r="K34" s="49"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" s="49"/>
+      <c r="P34" s="59"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B35" s="54"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="49"/>
+      <c r="F35" s="56"/>
+      <c r="J35" s="53"/>
       <c r="K35" s="49"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35" s="49"/>
+      <c r="P35" s="59"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B36" s="54"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="49"/>
+      <c r="F36" s="56"/>
+      <c r="J36" s="53"/>
       <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="P36" s="59"/>
+      <c r="T36" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K27" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="K7" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
-    <hyperlink ref="J16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
-    <hyperlink ref="K4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
-    <hyperlink ref="J15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
-    <hyperlink ref="J26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
-    <hyperlink ref="J12" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
-    <hyperlink ref="J31" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
-    <hyperlink ref="K32" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
-    <hyperlink ref="J33" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
+    <hyperlink ref="L27" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="L7" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
+    <hyperlink ref="K16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
+    <hyperlink ref="K15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
+    <hyperlink ref="K26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
+    <hyperlink ref="K12" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
+    <hyperlink ref="K31" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
+    <hyperlink ref="L32" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
+    <hyperlink ref="K33" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116F63A-CE88-4C2A-B0E7-23DF081C3E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A6EF61-DA39-495A-9DB0-42BEDF29B189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="463">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1797,406 +1797,483 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000+HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
+  </si>
+  <si>
+    <t>7000+HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.aliyun.com/campus/home?from=gzhWeChat&amp;lang=zh</t>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?keywords=%E7%94%9F%E6%B4%BB%E6%9C%8D%E5%8A%A1&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
+  </si>
+  <si>
+    <t>https://talent.taotian.com/campus/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?keywords=%E6%8A%96%E9%9F%B3%E7%A0%94%E5%8F%91&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
+  </si>
+  <si>
+    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://u.alipay.cn/_N6Ibaxr7EpDy9gXfmGKHj</t>
+  </si>
+  <si>
+    <t>https://talent.taotian.com/campus/qrcode/home?code=t5Ln4%2F8ze3BjK_Cf_hSUI5jqd4sgUSMEz38SqFtWYu4%3D</t>
+  </si>
+  <si>
+    <t>通知/内推链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>https://jobs.mihoyo.com/m/?recommendationCode=9QK8&amp;isRecommendation=true#/campus/position</t>
+  </si>
+  <si>
+    <t>网易雷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东 JD YOUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XK116</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/sOJucmp0gyRcEKqSdXuy5w</t>
+  </si>
+  <si>
+    <t>9QK8</t>
+  </si>
+  <si>
+    <t>3.8笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里 蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?keywords=%E5%89%AA%E6%98%A0&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=3&amp;external_referral_code=BEGNWJ8</t>
+  </si>
+  <si>
+    <t>无限复活甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里 饿了么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6GJN60H</t>
+  </si>
+  <si>
+    <t>阿里 淘天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 抖音研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 生活服务研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES1W02</t>
+  </si>
+  <si>
+    <t>投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D396K5</t>
+  </si>
+  <si>
+    <t>campusitAjZhOjZ</t>
+  </si>
+  <si>
+    <t>虾皮</t>
+  </si>
+  <si>
+    <t>DSECVCRH</t>
+  </si>
+  <si>
+    <t>X9217808</t>
+  </si>
+  <si>
+    <t>每人可投递两个志愿</t>
+  </si>
+  <si>
+    <t>腾讯 WXG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CDG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节 抖音剪映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯 CSIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw</t>
+  </si>
+  <si>
+    <t>腾讯 IEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ</t>
+  </si>
+  <si>
+    <t>腾讯 PCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ</t>
+  </si>
+  <si>
+    <t>腾讯 TEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/48Mc43QSiSNUBsvylhRazg</t>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/university/oppo/campus/post?shareId=9501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhaopin.meituan.com/web/campus?zp-from=hiring-campus-bole-elephant&amp;staffSsoId=23751624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr-campus.vivo.com/campus/jobs?memory=%7B%7D&amp;silence=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.kuaishou.cn/recruit/campus/e/h5/#/campus/jobs?code=campusitAjZhOjZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/campus_apply/shopee/2962?recommendCode=DSECVCRH&amp;hash=%23%2Fjobs#/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGLCZ11726</t>
+  </si>
+  <si>
+    <t>https://f.wps.cn/ksform/w/write/SyIlaQk0/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.midea.com/schoolOut/post?tabName=internship</t>
+  </si>
+  <si>
+    <t>https://campus.ctrip.com/</t>
+  </si>
+  <si>
+    <t>03.10投递、03.17简历挂、03.17复投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业帮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://careers.midea.com/ </t>
+  </si>
+  <si>
+    <t>M060103</t>
+  </si>
+  <si>
+    <t>03.15笔试、复筛不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTAW3Fx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/campus-recruitment/zuoyebang/150514?recommendCode=DSZkMCxf&amp;hash=%23%2Fjobs#/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.14-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvppekyikynKCou5qJr0pkEyTv0%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发工程师JAVA / 测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.amap.com/campus/home?lang=zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/9aIQxIY-yFQe-IslTGwVzQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.jd.com/api/wx/position/index?type=internship#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSZkMCxf</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/QIDGqQHn1gH7LThfMzBezg</t>
+  </si>
+  <si>
+    <t>阿里 高德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里 钉钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://careers.aliyun.com/campus/qrcode/apply/positions?code=QL4pw6k9zZPnEAnzf/O4IuTzt30hduUFid9K3CXamSs=</t>
-  </si>
-  <si>
-    <t>https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000+HC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
-  </si>
-  <si>
-    <t>7000+HC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高德地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.amap.com/campus/home?lang=zh</t>
-  </si>
-  <si>
-    <t>软件开发类</t>
-  </si>
-  <si>
-    <t>https://careers.aliyun.com/campus/home?from=gzhWeChat&amp;lang=zh</t>
-  </si>
-  <si>
-    <t>后端</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>https://job.toutiao.com/campus/m/position?keywords=%E7%94%9F%E6%B4%BB%E6%9C%8D%E5%8A%A1&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
-  </si>
-  <si>
-    <t>https://talent.taotian.com/campus/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.toutiao.com/campus/m/position?keywords=%E6%8A%96%E9%9F%B3%E7%A0%94%E5%8F%91&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/9aIQxIY-yFQe-IslTGwVzQ</t>
-  </si>
-  <si>
-    <t>campus.jd.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://u.alipay.cn/_N6Ibaxr7EpDy9gXfmGKHj</t>
-  </si>
-  <si>
-    <t>https://talent.taotian.com/campus/qrcode/home?code=t5Ln4%2F8ze3BjK_Cf_hSUI5jqd4sgUSMEz38SqFtWYu4%3D</t>
-  </si>
-  <si>
-    <t>通知/内推链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团</t>
-  </si>
-  <si>
-    <t>https://jobs.mihoyo.com/m/?recommendationCode=9QK8&amp;isRecommendation=true#/campus/position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26暑期后端研发工程师</t>
+  </si>
+  <si>
+    <t>AI研发工程师JAVA</t>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+  </si>
+  <si>
+    <t>研发工程师JAVA信息工程</t>
+  </si>
+  <si>
+    <t>笔试双机位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里 哈啰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜马拉雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里 盒马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莉莉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000+实习HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bilibili.com/campus/positions?type=0&amp;token=7dd8726b-8fdf-4427-a811-2cca162432df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发工程师JAVA</t>
+  </si>
+  <si>
+    <t>北京杭州上海深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA开发工程师（交易）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师（上海）</t>
+  </si>
+  <si>
+    <t>软件开发工程师（后端方向）</t>
+  </si>
+  <si>
+    <t>上海北京深圳成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京上海杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京深圳成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海北京深圳南通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉佛山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海苏州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://mp.weixin.qq.com/s/aKCZE7UH1rIVlluzPxp7jQ</t>
-  </si>
-  <si>
-    <t>网易雷火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Momenta</t>
-  </si>
-  <si>
-    <t>https://momenta.jobs.feishu.cn/s/9Nug-tZuUhA</t>
-  </si>
-  <si>
-    <t>内推码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ZUB7AS</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/JyQHG9vzSzubAdqTiscRIA</t>
-  </si>
-  <si>
-    <t>京东 JD YOUNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XK116</t>
-  </si>
-  <si>
-    <t>https://campus.jd.com/api/wx/position/index?type=internship#/</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/sOJucmp0gyRcEKqSdXuy5w</t>
-  </si>
-  <si>
-    <t>9QK8</t>
-  </si>
-  <si>
-    <t>3.8笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里 蚂蚁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.9笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.toutiao.com/campus/m/position?keywords=%E5%89%AA%E6%98%A0&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=3&amp;external_referral_code=BEGNWJ8</t>
-  </si>
-  <si>
-    <t>无限复活甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里 饿了么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.ele.me/campus/qrcode/home?code=P5368qSwikRqDddjIvppekyikynKCou5qJr0pkEyTv0%3D</t>
-  </si>
-  <si>
-    <t>6GJN60H</t>
-  </si>
-  <si>
-    <t>阿里 淘天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里云 弹性计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节 抖音研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节 生活服务研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES1W02</t>
-  </si>
-  <si>
-    <t>投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jobs.bilibili.com/campus/positions?type=0&amp;token=7dd8726b-8fdf-4427-a811-2cca162432df</t>
-  </si>
-  <si>
-    <t>D396K5</t>
-  </si>
-  <si>
-    <t>campusitAjZhOjZ</t>
-  </si>
-  <si>
-    <t>虾皮</t>
-  </si>
-  <si>
-    <t>DSECVCRH</t>
-  </si>
-  <si>
-    <t>X9217808</t>
-  </si>
-  <si>
-    <t>每人可投递两个志愿</t>
-  </si>
-  <si>
-    <t>自动驾驶遥遥领先企业，薪资很高，实习也是</t>
-  </si>
-  <si>
-    <t>腾讯 WXG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CDG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节 抖音剪映</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CSIG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw</t>
-  </si>
-  <si>
-    <t>腾讯 IEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ</t>
-  </si>
-  <si>
-    <t>腾讯 PCG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ</t>
-  </si>
-  <si>
-    <t>腾讯 TEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/48Mc43QSiSNUBsvylhRazg</t>
-  </si>
-  <si>
-    <t>https://careers.oppo.com/university/oppo/campus/post?shareId=9501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhaopin.meituan.com/web/campus?zp-from=hiring-campus-bole-elephant&amp;staffSsoId=23751624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hr-campus.vivo.com/campus/jobs?memory=%7B%7D&amp;silence=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.kuaishou.cn/recruit/campus/e/h5/#/campus/jobs?code=campusitAjZhOjZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/m/campus_apply/shopee/2962?recommendCode=DSECVCRH&amp;hash=%23%2Fjobs#/jobs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGLCZ11726</t>
-  </si>
-  <si>
-    <t>https://f.wps.cn/ksform/w/write/SyIlaQk0/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京、深圳、成都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京、上海、杭州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州、北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://careers.midea.com/schoolOut/post?tabName=internship</t>
-  </si>
-  <si>
-    <t>https://campus.ctrip.com/</t>
-  </si>
-  <si>
-    <t>上海、北京、深圳、南通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.10投递、03.17简历挂、03.17复投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业帮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://careers.midea.com/ </t>
-  </si>
-  <si>
-    <t>M060103</t>
-  </si>
-  <si>
-    <t>03.15笔试、复筛不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉、佛山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTAW3Fx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/m/campus-recruitment/zuoyebang/150514?recommendCode=DSZkMCxf&amp;hash=%23%2Fjobs#/jobs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.14-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/fDRuKVyGzoNZSZiWeb-oig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPG研发工程师（J83425）</t>
+  </si>
+  <si>
+    <t>上海杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2204,7 +2281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2303,18 +2380,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2378,6 +2449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,7 +2628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2694,7 +2771,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
@@ -2719,21 +2795,18 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2741,7 +2814,6 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2759,6 +2831,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2766,6 +2862,13 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="44">
+    <dxf>
+      <font>
+        <b/>
+        <charset val="134"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2785,7 +2888,16 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3006,13 +3118,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3078,33 +3202,6 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <charset val="134"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3141,81 +3238,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L36" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:L36" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L30">
-    <sortCondition ref="A1:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L43" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:L43" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
+    <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{88C039C7-306D-49CB-B3C8-2C5122F7EACD}" name="AI面试" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="面试" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{88C039C7-306D-49CB-B3C8-2C5122F7EACD}" name="AI面试" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="一面" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3484,20 +3581,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.2109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="10.640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.640625" style="56" customWidth="1"/>
-    <col min="6" max="9" width="15.640625" style="7" customWidth="1"/>
-    <col min="10" max="11" width="15.640625" style="51" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="59"/>
+    <col min="1" max="1" width="20.2109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="15.640625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="15.640625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="25.640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20.640625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="10.640625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="10.640625" style="57" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="57"/>
     <col min="16" max="18" width="9.140625" style="7"/>
     <col min="19" max="19" width="9.140625" style="7" customWidth="1"/>
   </cols>
@@ -3507,19 +3607,19 @@
         <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>414</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>56</v>
+        <v>364</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>462</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>329</v>
@@ -3531,689 +3631,812 @@
         <v>332</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="L1" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="L1" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" s="48"/>
+      <c r="P2" s="57"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="P3" s="57"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="P4" s="57"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="74" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="L5" s="48"/>
+      <c r="P5" s="57"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="69" t="s">
+        <v>424</v>
+      </c>
+      <c r="P6" s="57"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="F7" s="55"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="L7" s="48"/>
+      <c r="P7" s="57"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="F8" s="55"/>
+      <c r="J8" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="P8" s="57"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="J9" s="52"/>
+      <c r="K9" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="P9" s="57"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="P10" s="57"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>398</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="J11" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="P11" s="57"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="K12" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="L12" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="P12" s="57"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="I13" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="F2" s="56"/>
-      <c r="I2" s="55" t="s">
-        <v>391</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>360</v>
-      </c>
-      <c r="K2" s="49" t="s">
+      <c r="J13" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="P13" s="57"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="K14" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="J15" s="52"/>
+      <c r="K15" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="L15" s="48"/>
+      <c r="P15" s="57"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="F16" s="55"/>
+      <c r="I16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="P16" s="57"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="I17" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J17" s="52"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="P17" s="57"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="F18" s="55"/>
+      <c r="I18" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="P18" s="57"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="76" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="F19" s="55"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="P19" s="57"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="F20" s="55"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="L20" s="48"/>
+      <c r="P20" s="57"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="F21" s="55"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="L21" s="48"/>
+      <c r="P21" s="57"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="76" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="F22" s="55"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="L22" s="48"/>
+      <c r="P22" s="57"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="76" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="F23" s="55"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="L23" s="48"/>
+      <c r="P23" s="57"/>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="76" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="F24" s="55"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="P24" s="57"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="F25" s="55"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="L25" s="48"/>
+      <c r="P25" s="57"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" s="71"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="K26" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="L26" s="48"/>
+      <c r="P26" s="57"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="F27" s="55"/>
+      <c r="G27" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H27" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="K27" s="48"/>
+      <c r="L27" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="P27" s="57"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="F28" s="55"/>
+      <c r="I28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="J28" s="52"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="P28" s="57"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="76" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="F29" s="55"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="P29" s="57"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="76" t="s">
         <v>361</v>
       </c>
-      <c r="L2" s="49" t="s">
-        <v>358</v>
-      </c>
-      <c r="P2" s="59"/>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>405</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>433</v>
-      </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="7" t="s">
+      <c r="B30" s="53"/>
+      <c r="F30" s="55"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="P30" s="57"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="76" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="F31" s="55"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="P31" s="57"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="B32" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="I3" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>404</v>
-      </c>
-      <c r="L3" s="49"/>
-      <c r="P3" s="59"/>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="62" t="s">
-        <v>409</v>
-      </c>
-      <c r="P4" s="59"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="F5" s="56"/>
-      <c r="H5" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="L5" s="49"/>
-      <c r="P5" s="59"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="F6" s="56"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="L6" s="49"/>
-      <c r="P6" s="59"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="F7" s="56"/>
-      <c r="H7" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>345</v>
-      </c>
-      <c r="P7" s="59"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="F8" s="56"/>
-      <c r="I8" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="P8" s="59"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="F9" s="56"/>
-      <c r="H9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="P9" s="59"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="F10" s="56"/>
-      <c r="J10" s="53" t="s">
-        <v>385</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="L10" s="49"/>
-      <c r="P10" s="59"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="F11" s="56"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="P11" s="59"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="57" t="s">
-        <v>419</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>417</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="J12" s="53" t="s">
-        <v>420</v>
-      </c>
-      <c r="K12" s="62" t="s">
-        <v>421</v>
-      </c>
-      <c r="L12" s="49"/>
-      <c r="P12" s="59"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="F13" s="56"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="L13" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="P13" s="59"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="F14" s="56"/>
-      <c r="J14" s="53" t="s">
-        <v>363</v>
-      </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="P14" s="59"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>429</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="I15" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="J15" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="K15" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="L15" s="49"/>
-      <c r="P15" s="59"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>418</v>
-      </c>
-      <c r="D16" s="58" t="s">
+      <c r="F32" s="55"/>
+      <c r="G32" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="K32" s="59" t="s">
         <v>416</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="L32" s="48"/>
+      <c r="P32" s="57"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="F33" s="55"/>
+      <c r="G33" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="J33" s="52"/>
+      <c r="K33" s="69" t="s">
+        <v>459</v>
+      </c>
+      <c r="L33" s="48"/>
+      <c r="P33" s="57"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="F34" s="55"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="70"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="F35" s="55"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="70"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="F36" s="55"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="70"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B37" s="53"/>
+      <c r="F37" s="55"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="70"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B38" s="53"/>
+      <c r="F38" s="55"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="70"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="F39" s="55"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="70"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="F40" s="55"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="70"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="F41" s="55"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="70"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="62" t="s">
-        <v>408</v>
-      </c>
-      <c r="L16" s="49"/>
-      <c r="P16" s="59"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="F17" s="56"/>
-      <c r="I17" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>366</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>365</v>
-      </c>
-      <c r="L17" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="P17" s="59"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="F18" s="56"/>
-      <c r="I18" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="L18" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="P18" s="59"/>
-      <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="F19" s="56"/>
-      <c r="H19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="P19" s="59"/>
-      <c r="T19" s="7"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="F20" s="56"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="L20" s="49"/>
-      <c r="P20" s="59"/>
-      <c r="T20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="48" t="s">
-        <v>398</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="F21" s="56"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="49" t="s">
-        <v>397</v>
-      </c>
-      <c r="L21" s="49"/>
-      <c r="P21" s="59"/>
-      <c r="T21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="F22" s="56"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="49" t="s">
-        <v>399</v>
-      </c>
-      <c r="L22" s="49"/>
-      <c r="P22" s="59"/>
-      <c r="T22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="48" t="s">
-        <v>402</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="F23" s="56"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="L23" s="49"/>
-      <c r="P23" s="59"/>
-      <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="L24" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="P24" s="59"/>
-      <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="F25" s="56"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="L25" s="49"/>
-      <c r="P25" s="59"/>
-      <c r="T25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>418</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>417</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="56"/>
-      <c r="J26" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="K26" s="62" t="s">
-        <v>412</v>
-      </c>
-      <c r="L26" s="49"/>
-      <c r="P26" s="59"/>
-      <c r="T26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="F27" s="56"/>
-      <c r="I27" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="P27" s="59"/>
-      <c r="T27" s="7"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="F28" s="56"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="P28" s="59"/>
-      <c r="T28" s="7"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49" t="s">
-        <v>346</v>
-      </c>
-      <c r="P29" s="59"/>
-      <c r="T29" s="7"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="P30" s="59"/>
-      <c r="T30" s="7"/>
-    </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.45">
-      <c r="A31" s="57" t="s">
-        <v>425</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>438</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>418</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>441</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>442</v>
-      </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="J31" s="63" t="s">
-        <v>432</v>
-      </c>
-      <c r="K31" s="64" t="s">
-        <v>426</v>
-      </c>
-      <c r="L31" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="P31" s="59"/>
-      <c r="T31" s="7"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.45">
-      <c r="A32" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>438</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H32" s="67" t="s">
-        <v>428</v>
-      </c>
-      <c r="J32" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="K32" s="49"/>
-      <c r="L32" s="64" t="s">
-        <v>427</v>
-      </c>
-      <c r="P32" s="59"/>
-      <c r="T32" s="7"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A33" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="F33" s="56"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="62" t="s">
-        <v>440</v>
-      </c>
-      <c r="L33" s="49"/>
-      <c r="P33" s="59"/>
-      <c r="T33" s="7"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A34" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="F34" s="56"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="P34" s="59"/>
-      <c r="T34" s="7"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B35" s="54"/>
-      <c r="F35" s="56"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="P35" s="59"/>
-      <c r="T35" s="7"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B36" s="54"/>
-      <c r="F36" s="56"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="P36" s="59"/>
-      <c r="T36" s="7"/>
+      <c r="B42" s="53"/>
+      <c r="F42" s="55"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="70"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="F43" s="55"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L27" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="L7" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
-    <hyperlink ref="K3" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
-    <hyperlink ref="K16" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
-    <hyperlink ref="L4" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
-    <hyperlink ref="K15" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
+    <hyperlink ref="L28" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="L8" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
+    <hyperlink ref="K15" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
+    <hyperlink ref="L3" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
+    <hyperlink ref="K13" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
     <hyperlink ref="K26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
-    <hyperlink ref="K12" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
-    <hyperlink ref="K31" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
-    <hyperlink ref="L32" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
-    <hyperlink ref="K33" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
+    <hyperlink ref="K11" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
+    <hyperlink ref="K14" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
+    <hyperlink ref="L27" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
+    <hyperlink ref="K32" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
+    <hyperlink ref="K5" r:id="rId12" xr:uid="{06B33963-98C4-4CC3-BACB-70D858EA5F01}"/>
+    <hyperlink ref="L6" r:id="rId13" xr:uid="{CBF108E6-62CE-4807-8FA9-F92594F12847}"/>
+    <hyperlink ref="K12" r:id="rId14" xr:uid="{28A94E4D-F220-4AB7-ACEA-8193F975B4DF}"/>
+    <hyperlink ref="L12" r:id="rId15" location="/" xr:uid="{9F20F2F9-EFCF-46B1-A06B-A8EF80103AA8}"/>
+    <hyperlink ref="K9" r:id="rId16" xr:uid="{08276EB6-6099-420A-BD80-A724A473516E}"/>
+    <hyperlink ref="K10" r:id="rId17" xr:uid="{9BB79AAC-3B94-4AA3-81ED-A13503476798}"/>
+    <hyperlink ref="K25" r:id="rId18" xr:uid="{93A8D6DD-9772-49EC-BB6C-016CBA6ECF04}"/>
+    <hyperlink ref="K33" r:id="rId19" xr:uid="{C2090F32-7AF7-486A-AB8F-DAD43AFD3578}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5937,7 +6160,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5948,7 +6171,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="72"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -5957,7 +6180,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="73"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -5966,7 +6189,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="67" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5977,7 +6200,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="72"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -5986,7 +6209,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="72"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -5995,11 +6218,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/大厂/大厂信息.xlsx
+++ b/大厂/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A6EF61-DA39-495A-9DB0-42BEDF29B189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE4ED9-C00F-4032-A197-6AC4BA363AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="465">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2274,6 +2274,14 @@
   </si>
   <si>
     <t>一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.20、03.24回到人才库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2628,7 +2636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2814,6 +2822,24 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2831,30 +2857,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2862,43 +2864,6 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="44">
-    <dxf>
-      <font>
-        <b/>
-        <charset val="134"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3118,6 +3083,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3202,6 +3176,34 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="134"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3238,81 +3240,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L43" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:L43" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:L44" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
     <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{88C039C7-306D-49CB-B3C8-2C5122F7EACD}" name="AI面试" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="一面" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{C6BDAFFB-AC6A-4332-B41B-45CD5E221990}" name="投递" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{AF26DF64-3649-4FA4-90C9-E756FA4F7358}" name="测评" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{72D64FB5-5863-4210-B16C-B11BE07A99F3}" name="笔试" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{88C039C7-306D-49CB-B3C8-2C5122F7EACD}" name="AI面试" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{1FCA8EAB-0632-4B38-89CC-130864DDCF4F}" name="一面" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{D4C4C40D-FB65-4B54-8014-F62E8F8EB4E0}" name="职位" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{2581A69D-552D-425A-94AB-7EB1C9C0C457}" name="base" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{16A24751-B212-438E-A072-91B334158587}" name="备注" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{925B6EFD-509E-4773-BC99-3FEC88195A7F}" name="内推码" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{F30E4C06-2D3B-400F-8314-9C0F365AF3CA}" name="通知/内推链接" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{A4A57D0F-B475-413C-B0EF-409BFE960246}" name="投递链接" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}" name="表1" displayName="表1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:J1048576" xr:uid="{AF6565EB-CA7B-45FA-ADF2-A3D1D81194E2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{8BA6A10B-7326-46D3-B316-7BE5C8A5B608}" name="名称" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{F0479480-6F3A-4439-9363-BA717FF17D63}" name="大中小厂" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{02F7842B-9779-4769-A09F-2986D953A873}" name="城市" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{11EA0C83-823A-4FA2-8915-2ADD475A5F34}" name="核心业务" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{06233B6F-4E1D-4302-92AC-7C3CCD380D98}" name="面试" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{5440DEC6-331C-4AE6-A8A2-9C6D41BC39ED}" name="白菜" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{25D8C6CD-E2E1-4865-A77D-BC596ACC3132}" name="sp offer" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{98559A49-2BF9-44D9-AEF5-2232E079051A}" name="ssp offer" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{B749BEBC-0555-4BFA-87EE-064B85A27385}" name="面试体验" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5515683B-5C2F-4B28-9EB9-0C96564C45DA}" name="其他" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}" name="表3" displayName="表3" ref="A1:F31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:F31" xr:uid="{80150927-DF10-4660-A9FB-EA1D0D8608BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{8E828829-1CEF-40C6-9D99-77D9D5838033}" name="部门" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9F24DB4D-9766-4FD8-B8DD-1F8D90770518}" name="Base / HC" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A247E065-7B74-429A-99EB-0280F3E5CCA6}" name="薪资" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{5D101701-86C3-4CAB-9199-8772682EDFB5}" name="强度" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D9425DF5-BEC1-4453-9A2F-C48CE4A98ACE}" name="面试体验" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{C3C39707-CFBF-4FAB-9A05-8D6109EAC7A7}" name="其他" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}" name="表2" displayName="表2" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H1048570" xr:uid="{98EB4621-BFEB-49BA-90C2-1AD5BED8D8D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B8E822D5-0872-4CFC-91D1-675378445278}" name="城市" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{66EE8F99-AEAE-4C50-9C6F-C94ACC241147}" name="名称" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B4E262F4-906D-4C46-BB19-16995ACED595}" name="大中小厂" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DFB80E25-1609-4F55-BF77-D7621666E7AD}" name="核心业务" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B150EA1A-1574-4C6E-A037-DC3C12257D8B}" name="白菜/sp/ssp" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{37DECDAE-7F33-424F-A0E6-0507EEFFF189}" name="面试流程" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{99F871A2-4262-4200-9BCA-40B473EBB74C}" name="面试体验" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{55722339-C44F-49A1-9017-1E88E8895B49}" name="其他信息" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3581,10 +3583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3648,7 +3650,7 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>411</v>
       </c>
       <c r="B2" s="61" t="s">
@@ -3682,7 +3684,7 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="67" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -3709,11 +3711,14 @@
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="67" t="s">
         <v>430</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>422</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>463</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="7" t="s">
@@ -3731,7 +3736,7 @@
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="67" t="s">
         <v>358</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -3745,7 +3750,7 @@
         <v>452</v>
       </c>
       <c r="J5" s="52"/>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="63" t="s">
         <v>421</v>
       </c>
       <c r="L5" s="48"/>
@@ -3753,7 +3758,7 @@
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="67" t="s">
         <v>429</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -3768,14 +3773,14 @@
       </c>
       <c r="J6" s="52"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="63" t="s">
         <v>424</v>
       </c>
       <c r="P6" s="57"/>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="68" t="s">
         <v>354</v>
       </c>
       <c r="B7" s="53"/>
@@ -3789,7 +3794,7 @@
       <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="68" t="s">
         <v>360</v>
       </c>
       <c r="B8" s="53"/>
@@ -3807,7 +3812,7 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="67" t="s">
         <v>145</v>
       </c>
       <c r="B9" s="62" t="s">
@@ -3824,7 +3829,7 @@
         <v>355</v>
       </c>
       <c r="J9" s="52"/>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="63" t="s">
         <v>431</v>
       </c>
       <c r="L9" s="48" t="s">
@@ -3834,7 +3839,7 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="67" t="s">
         <v>161</v>
       </c>
       <c r="B10" s="62" t="s">
@@ -3850,7 +3855,7 @@
       <c r="J10" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="63" t="s">
         <v>445</v>
       </c>
       <c r="L10" s="48"/>
@@ -3858,7 +3863,7 @@
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="67" t="s">
         <v>400</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -3876,11 +3881,14 @@
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="67" t="s">
         <v>349</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>422</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>463</v>
       </c>
       <c r="F12" s="55"/>
       <c r="G12" s="7" t="s">
@@ -3892,17 +3900,17 @@
       <c r="J12" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="63" t="s">
         <v>426</v>
       </c>
       <c r="P12" s="57"/>
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="67" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="56" t="s">
@@ -3923,7 +3931,7 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="67" t="s">
         <v>403</v>
       </c>
       <c r="B14" s="62" t="s">
@@ -3958,23 +3966,23 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="F15" s="56" t="s">
-        <v>418</v>
+      <c r="F15" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>450</v>
@@ -3991,7 +3999,7 @@
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="53"/>
@@ -4012,7 +4020,7 @@
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="53"/>
@@ -4027,7 +4035,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="68" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="53"/>
@@ -4046,7 +4054,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B19" s="53"/>
@@ -4060,7 +4068,7 @@
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B20" s="53"/>
@@ -4074,7 +4082,7 @@
       <c r="T20" s="7"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B21" s="53"/>
@@ -4088,7 +4096,7 @@
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B22" s="53"/>
@@ -4102,7 +4110,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B23" s="53"/>
@@ -4116,7 +4124,7 @@
       <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B24" s="53"/>
@@ -4132,13 +4140,13 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="67" t="s">
         <v>347</v>
       </c>
       <c r="B25" s="53"/>
       <c r="F25" s="55"/>
       <c r="J25" s="52"/>
-      <c r="K25" s="69" t="s">
+      <c r="K25" s="63" t="s">
         <v>458</v>
       </c>
       <c r="L25" s="48"/>
@@ -4146,7 +4154,7 @@
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="67" t="s">
         <v>370</v>
       </c>
       <c r="B26" s="62" t="s">
@@ -4158,7 +4166,6 @@
       <c r="D26" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="E26" s="71"/>
       <c r="F26" s="55"/>
       <c r="G26" s="7" t="s">
         <v>449</v>
@@ -4177,7 +4184,7 @@
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="1:20" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="67" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="62" t="s">
@@ -4190,7 +4197,7 @@
       <c r="G27" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="H27" s="72" t="s">
+      <c r="H27" s="65" t="s">
         <v>454</v>
       </c>
       <c r="J27" s="52" t="s">
@@ -4204,7 +4211,7 @@
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="53"/>
@@ -4221,7 +4228,7 @@
       <c r="T28" s="7"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B29" s="53"/>
@@ -4235,7 +4242,7 @@
       <c r="T29" s="7"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B30" s="53"/>
@@ -4249,7 +4256,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B31" s="53"/>
@@ -4263,7 +4270,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="67" t="s">
         <v>407</v>
       </c>
       <c r="B32" s="62" t="s">
@@ -4287,7 +4294,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="67" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="62" t="s">
@@ -4304,7 +4311,7 @@
         <v>444</v>
       </c>
       <c r="J33" s="52"/>
-      <c r="K33" s="69" t="s">
+      <c r="K33" s="63" t="s">
         <v>459</v>
       </c>
       <c r="L33" s="48"/>
@@ -4319,7 +4326,7 @@
       <c r="F34" s="55"/>
       <c r="J34" s="52"/>
       <c r="K34" s="48"/>
-      <c r="L34" s="70"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
@@ -4329,7 +4336,7 @@
       <c r="F35" s="55"/>
       <c r="J35" s="52"/>
       <c r="K35" s="48"/>
-      <c r="L35" s="70"/>
+      <c r="L35" s="64"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
@@ -4339,7 +4346,7 @@
       <c r="F36" s="55"/>
       <c r="J36" s="52"/>
       <c r="K36" s="48"/>
-      <c r="L36" s="70"/>
+      <c r="L36" s="64"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
@@ -4349,7 +4356,7 @@
       <c r="F37" s="55"/>
       <c r="J37" s="52"/>
       <c r="K37" s="48"/>
-      <c r="L37" s="70"/>
+      <c r="L37" s="64"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
@@ -4359,7 +4366,7 @@
       <c r="F38" s="55"/>
       <c r="J38" s="52"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="70"/>
+      <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
@@ -4369,7 +4376,7 @@
       <c r="F39" s="55"/>
       <c r="J39" s="52"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="70"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
@@ -4379,7 +4386,7 @@
       <c r="F40" s="55"/>
       <c r="J40" s="52"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="70"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
@@ -4389,7 +4396,7 @@
       <c r="F41" s="55"/>
       <c r="J41" s="52"/>
       <c r="K41" s="48"/>
-      <c r="L41" s="70"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
@@ -4399,7 +4406,7 @@
       <c r="F42" s="55"/>
       <c r="J42" s="52"/>
       <c r="K42" s="48"/>
-      <c r="L42" s="70"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
@@ -4409,7 +4416,17 @@
       <c r="F43" s="55"/>
       <c r="J43" s="52"/>
       <c r="K43" s="48"/>
-      <c r="L43" s="70"/>
+      <c r="L43" s="64"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="53"/>
+      <c r="F44" s="55"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6160,7 +6177,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="72" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6171,7 +6188,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -6180,7 +6197,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -6189,7 +6206,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="73" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6200,7 +6217,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -6209,7 +6226,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -6218,11 +6235,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
